--- a/crudo/datos/01. EPH_GBA_empleo_Total.xlsx
+++ b/crudo/datos/01. EPH_GBA_empleo_Total.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damian\Dropbox\INFORMACIÓN EMPÍRICA\01. Argentina\02. Mercado de trabajo\01. Fuentes de información\EPH\02. Síntesis\01. Total de la economía\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facun\OneDrive\Documentos\GitHub\ceped-data\crudo\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FDDED5-9B65-4430-B75D-9D464FB3E5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60CB019-AE54-4E08-AE19-D95C65BB8411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2790" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Población en Censos" sheetId="1" r:id="rId1"/>
@@ -4970,11 +4970,11 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C6" sqref="C6"/>
       <selection pane="topRight" activeCell="C6" sqref="C6"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6102,39 +6102,39 @@
         <v>43</v>
       </c>
       <c r="C20" s="110">
-        <f>(O20/$N20*100)</f>
+        <f t="shared" ref="C20:C36" si="2">(O20/$N20*100)</f>
         <v>40.972415928056968</v>
       </c>
       <c r="D20" s="110">
-        <f>(P20/$N20*100)</f>
+        <f t="shared" ref="D20:D36" si="3">(P20/$N20*100)</f>
         <v>38.778759805124388</v>
       </c>
       <c r="E20" s="110">
-        <f>(Q20/$N20*100)</f>
+        <f t="shared" ref="E20:E36" si="4">(Q20/$N20*100)</f>
         <v>35.531828685707481</v>
       </c>
       <c r="F20" s="110">
-        <f>R20/$O20*100</f>
+        <f t="shared" ref="F20:F36" si="5">R20/$O20*100</f>
         <v>7.9246757748387493</v>
       </c>
       <c r="G20" s="111">
-        <f>S20/$O20*100</f>
+        <f t="shared" ref="G20:G36" si="6">S20/$O20*100</f>
         <v>5.3539828522301418</v>
       </c>
       <c r="H20" s="112">
-        <f>T20/$P20*100</f>
+        <f t="shared" ref="H20:H36" si="7">T20/$P20*100</f>
         <v>5.3526037934566917</v>
       </c>
       <c r="I20" s="113">
-        <f>U20/$P20*100</f>
+        <f t="shared" ref="I20:I36" si="8">U20/$P20*100</f>
         <v>22.514727567641906</v>
       </c>
       <c r="J20" s="113">
-        <f>V20/$P20*100</f>
+        <f t="shared" ref="J20:J36" si="9">V20/$P20*100</f>
         <v>71.104720111164212</v>
       </c>
       <c r="K20" s="113">
-        <f>W20/$P20*100</f>
+        <f t="shared" ref="K20:K36" si="10">W20/$P20*100</f>
         <v>1.0219895760086533</v>
       </c>
       <c r="L20" s="112">
@@ -6148,11 +6148,11 @@
         <v>10760725.760435354</v>
       </c>
       <c r="O20" s="105">
-        <f t="shared" ref="O20:O36" si="2">P20+S20</f>
+        <f t="shared" ref="O20:O36" si="11">P20+S20</f>
         <v>4408929.3154431442</v>
       </c>
       <c r="P20" s="105">
-        <f t="shared" ref="P20:P36" si="3">Q20+R20</f>
+        <f t="shared" ref="P20:P36" si="12">Q20+R20</f>
         <v>4172875.9959273702</v>
       </c>
       <c r="Q20" s="105">
@@ -6181,7 +6181,7 @@
         <v>2207531.4256372042</v>
       </c>
       <c r="Y20" s="109">
-        <f>V20*M20/100</f>
+        <f t="shared" ref="Y20:Y36" si="13">V20*M20/100</f>
         <v>759580.3718529084</v>
       </c>
     </row>
@@ -6194,43 +6194,43 @@
         <v>43</v>
       </c>
       <c r="C21" s="110">
-        <f>(O21/$N21*100)</f>
+        <f t="shared" si="2"/>
         <v>40.451741060652857</v>
       </c>
       <c r="D21" s="110">
-        <f>(P21/$N21*100)</f>
+        <f t="shared" si="3"/>
         <v>37.920945084750954</v>
       </c>
       <c r="E21" s="110">
-        <f>(Q21/$N21*100)</f>
+        <f t="shared" si="4"/>
         <v>34.932466915016732</v>
       </c>
       <c r="F21" s="110">
-        <f>R21/$O21*100</f>
+        <f t="shared" si="5"/>
         <v>7.3877615434483692</v>
       </c>
       <c r="G21" s="111">
-        <f>S21/$O21*100</f>
+        <f t="shared" si="6"/>
         <v>6.2563338673291238</v>
       </c>
       <c r="H21" s="112">
-        <f>T21/$P21*100</f>
+        <f t="shared" si="7"/>
         <v>4.7556741310602275</v>
       </c>
       <c r="I21" s="113">
-        <f>U21/$P21*100</f>
+        <f t="shared" si="8"/>
         <v>22.598516881649033</v>
       </c>
       <c r="J21" s="113">
-        <f>V21/$P21*100</f>
+        <f t="shared" si="9"/>
         <v>71.519514313235604</v>
       </c>
       <c r="K21" s="113">
-        <f>W21/$P21*100</f>
+        <f t="shared" si="10"/>
         <v>1.1262946740557518</v>
       </c>
       <c r="L21" s="112">
-        <f t="shared" ref="L21:L36" si="4">100-M21</f>
+        <f t="shared" ref="L21:L36" si="14">100-M21</f>
         <v>75.391569828072207</v>
       </c>
       <c r="M21" s="114">
@@ -6240,11 +6240,11 @@
         <v>10876712.304507384</v>
       </c>
       <c r="O21" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4399819.4973314954</v>
       </c>
       <c r="P21" s="105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>4124552.1000185953</v>
       </c>
       <c r="Q21" s="105">
@@ -6269,11 +6269,11 @@
         <v>46454.610631164105</v>
       </c>
       <c r="X21" s="107">
-        <f t="shared" ref="X21:X36" si="5">V21-Y21</f>
+        <f t="shared" ref="X21:X36" si="15">V21-Y21</f>
         <v>2223945.4824269647</v>
       </c>
       <c r="Y21" s="109">
-        <f>V21*M21/100</f>
+        <f t="shared" si="13"/>
         <v>725914.14710269391</v>
       </c>
     </row>
@@ -6286,43 +6286,43 @@
         <v>43</v>
       </c>
       <c r="C22" s="110">
-        <f>(O22/$N22*100)</f>
+        <f t="shared" si="2"/>
         <v>42.082212063050846</v>
       </c>
       <c r="D22" s="110">
-        <f>(P22/$N22*100)</f>
+        <f t="shared" si="3"/>
         <v>38.884882877193675</v>
       </c>
       <c r="E22" s="110">
-        <f>(Q22/$N22*100)</f>
+        <f t="shared" si="4"/>
         <v>34.419114604733771</v>
       </c>
       <c r="F22" s="110">
-        <f>R22/$O22*100</f>
+        <f t="shared" si="5"/>
         <v>10.612009334891772</v>
       </c>
       <c r="G22" s="111">
-        <f>S22/$O22*100</f>
+        <f t="shared" si="6"/>
         <v>7.5978163435578949</v>
       </c>
       <c r="H22" s="112">
-        <f>T22/$P22*100</f>
+        <f t="shared" si="7"/>
         <v>5.2733427095519882</v>
       </c>
       <c r="I22" s="113">
-        <f>U22/$P22*100</f>
+        <f t="shared" si="8"/>
         <v>24.37241310625831</v>
       </c>
       <c r="J22" s="113">
-        <f>V22/$P22*100</f>
+        <f t="shared" si="9"/>
         <v>69.481720708749634</v>
       </c>
       <c r="K22" s="113">
-        <f>W22/$P22*100</f>
+        <f t="shared" si="10"/>
         <v>0.87252347543743858</v>
       </c>
       <c r="L22" s="112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>73.026406649331847</v>
       </c>
       <c r="M22" s="114">
@@ -6332,11 +6332,11 @@
         <v>10991766.495221891</v>
       </c>
       <c r="O22" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4625578.4859946482</v>
       </c>
       <c r="P22" s="105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>4274135.5278016487</v>
       </c>
       <c r="Q22" s="105">
@@ -6361,11 +6361,11 @@
         <v>37292.835852081254</v>
       </c>
       <c r="X22" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2168696.5339989644</v>
       </c>
       <c r="Y22" s="109">
-        <f>V22*M22/100</f>
+        <f t="shared" si="13"/>
         <v>801046.37614161905</v>
       </c>
     </row>
@@ -6378,43 +6378,43 @@
         <v>43</v>
       </c>
       <c r="C23" s="110">
-        <f>(O23/$N23*100)</f>
+        <f t="shared" si="2"/>
         <v>40.962500828878198</v>
       </c>
       <c r="D23" s="110">
-        <f>(P23/$N23*100)</f>
+        <f t="shared" si="3"/>
         <v>37.434538883565274</v>
       </c>
       <c r="E23" s="110">
-        <f>(Q23/$N23*100)</f>
+        <f t="shared" si="4"/>
         <v>33.990680503093166</v>
       </c>
       <c r="F23" s="110">
-        <f>R23/$O23*100</f>
+        <f t="shared" si="5"/>
         <v>8.4073440605076986</v>
       </c>
       <c r="G23" s="111">
-        <f>S23/$O23*100</f>
+        <f t="shared" si="6"/>
         <v>8.6126624935598244</v>
       </c>
       <c r="H23" s="112">
-        <f>T23/$P23*100</f>
+        <f t="shared" si="7"/>
         <v>4.4802040064188668</v>
       </c>
       <c r="I23" s="113">
-        <f>U23/$P23*100</f>
+        <f t="shared" si="8"/>
         <v>25.191184035749075</v>
       </c>
       <c r="J23" s="113">
-        <f>V23/$P23*100</f>
+        <f t="shared" si="9"/>
         <v>69.073678795463806</v>
       </c>
       <c r="K23" s="113">
-        <f>W23/$P23*100</f>
+        <f t="shared" si="10"/>
         <v>1.2549331623682234</v>
       </c>
       <c r="L23" s="112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>75.065714123594233</v>
       </c>
       <c r="M23" s="114">
@@ -6424,11 +6424,11 @@
         <v>11149612.524686962</v>
       </c>
       <c r="O23" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4567160.122841605</v>
       </c>
       <c r="P23" s="105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>4173806.0359208053</v>
       </c>
       <c r="Q23" s="105">
@@ -6453,11 +6453,11 @@
         <v>52378.476077696752</v>
       </c>
       <c r="X23" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2164145.5701848711</v>
       </c>
       <c r="Y23" s="109">
-        <f>V23*M23/100</f>
+        <f t="shared" si="13"/>
         <v>718855.80461274635</v>
       </c>
     </row>
@@ -6470,43 +6470,43 @@
         <v>43</v>
       </c>
       <c r="C24" s="110">
-        <f>(O24/$N24*100)</f>
+        <f t="shared" si="2"/>
         <v>40.873089293973933</v>
       </c>
       <c r="D24" s="110">
-        <f>(P24/$N24*100)</f>
+        <f t="shared" si="3"/>
         <v>38.289414702010916</v>
       </c>
       <c r="E24" s="110">
-        <f>(Q24/$N24*100)</f>
+        <f t="shared" si="4"/>
         <v>35.134006147119941</v>
       </c>
       <c r="F24" s="110">
-        <f>R24/$O24*100</f>
+        <f t="shared" si="5"/>
         <v>7.7200148297970488</v>
       </c>
       <c r="G24" s="111">
-        <f>S24/$O24*100</f>
+        <f t="shared" si="6"/>
         <v>6.3212119186301194</v>
       </c>
       <c r="H24" s="112">
-        <f>T24/$P24*100</f>
+        <f t="shared" si="7"/>
         <v>5.2483108407502685</v>
       </c>
       <c r="I24" s="113">
-        <f>U24/$P24*100</f>
+        <f t="shared" si="8"/>
         <v>24.522800268287785</v>
       </c>
       <c r="J24" s="113">
-        <f>V24/$P24*100</f>
+        <f t="shared" si="9"/>
         <v>69.44249582316121</v>
       </c>
       <c r="K24" s="113">
-        <f>W24/$P24*100</f>
+        <f t="shared" si="10"/>
         <v>0.78639306780051399</v>
       </c>
       <c r="L24" s="112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>71.057097313589622</v>
       </c>
       <c r="M24" s="114">
@@ -6516,11 +6516,11 @@
         <v>11292894.526424084</v>
       </c>
       <c r="O24" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4615754.86365961</v>
       </c>
       <c r="P24" s="105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>4323983.2170832092</v>
       </c>
       <c r="Q24" s="105">
@@ -6545,11 +6545,11 @@
         <v>34003.504272000006</v>
       </c>
       <c r="X24" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2133618.5747717218</v>
       </c>
       <c r="Y24" s="109">
-        <f>V24*M24/100</f>
+        <f t="shared" si="13"/>
         <v>869063.29014547716</v>
       </c>
     </row>
@@ -6562,43 +6562,43 @@
         <v>43</v>
       </c>
       <c r="C25" s="110">
-        <f>(O25/$N25*100)</f>
+        <f t="shared" si="2"/>
         <v>41.45965923836895</v>
       </c>
       <c r="D25" s="110">
-        <f>(P25/$N25*100)</f>
+        <f t="shared" si="3"/>
         <v>38.700521415381637</v>
       </c>
       <c r="E25" s="110">
-        <f>(Q25/$N25*100)</f>
+        <f t="shared" si="4"/>
         <v>35.632513272354124</v>
       </c>
       <c r="F25" s="110">
-        <f>R25/$O25*100</f>
+        <f t="shared" si="5"/>
         <v>7.3999839829561722</v>
       </c>
       <c r="G25" s="111">
-        <f>S25/$O25*100</f>
+        <f t="shared" si="6"/>
         <v>6.65499397166744</v>
       </c>
       <c r="H25" s="112">
-        <f>T25/$P25*100</f>
+        <f t="shared" si="7"/>
         <v>4.7280961015285117</v>
       </c>
       <c r="I25" s="113">
-        <f>U25/$P25*100</f>
+        <f t="shared" si="8"/>
         <v>22.781380117311187</v>
       </c>
       <c r="J25" s="113">
-        <f>V25/$P25*100</f>
+        <f t="shared" si="9"/>
         <v>71.427137596624391</v>
       </c>
       <c r="K25" s="113">
-        <f>W25/$P25*100</f>
+        <f t="shared" si="10"/>
         <v>1.0633861845355914</v>
       </c>
       <c r="L25" s="112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>69.420325767569921</v>
       </c>
       <c r="M25" s="114">
@@ -6608,11 +6608,11 @@
         <v>11367156.864742152</v>
       </c>
       <c r="O25" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4712784.5012129601</v>
       </c>
       <c r="P25" s="105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>4399148.9767595604</v>
       </c>
       <c r="Q25" s="105">
@@ -6637,11 +6637,11 @@
         <v>46779.942455999997</v>
       </c>
       <c r="X25" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2181315.8912032624</v>
       </c>
       <c r="Y25" s="109">
-        <f>V25*M25/100</f>
+        <f t="shared" si="13"/>
         <v>960870.30150728242</v>
       </c>
     </row>
@@ -6654,43 +6654,43 @@
         <v>43</v>
       </c>
       <c r="C26" s="110">
-        <f>(O26/$N26*100)</f>
+        <f t="shared" si="2"/>
         <v>44.239846747274477</v>
       </c>
       <c r="D26" s="110">
-        <f>(P26/$N26*100)</f>
+        <f t="shared" si="3"/>
         <v>39.544323637141247</v>
       </c>
       <c r="E26" s="110">
-        <f>(Q26/$N26*100)</f>
+        <f t="shared" si="4"/>
         <v>35.918509520354256</v>
       </c>
       <c r="F26" s="110">
-        <f>R26/$O26*100</f>
+        <f t="shared" si="5"/>
         <v>8.1958107529167119</v>
       </c>
       <c r="G26" s="111">
-        <f>S26/$O26*100</f>
+        <f t="shared" si="6"/>
         <v>10.613787016390402</v>
       </c>
       <c r="H26" s="112">
-        <f>T26/$P26*100</f>
+        <f t="shared" si="7"/>
         <v>5.2179024393920503</v>
       </c>
       <c r="I26" s="113">
-        <f>U26/$P26*100</f>
+        <f t="shared" si="8"/>
         <v>23.566427920106097</v>
       </c>
       <c r="J26" s="113">
-        <f>V26/$P26*100</f>
+        <f t="shared" si="9"/>
         <v>69.40869585812608</v>
       </c>
       <c r="K26" s="113">
-        <f>W26/$P26*100</f>
+        <f t="shared" si="10"/>
         <v>1.8069737823764087</v>
       </c>
       <c r="L26" s="112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>68.584670978209147</v>
       </c>
       <c r="M26" s="114">
@@ -6700,11 +6700,11 @@
         <v>11436706.77160532</v>
       </c>
       <c r="O26" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5059581.5486933561</v>
       </c>
       <c r="P26" s="105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>4522568.3391944561</v>
       </c>
       <c r="Q26" s="105">
@@ -6729,11 +6729,11 @@
         <v>81721.624179299994</v>
       </c>
       <c r="X26" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2152911.0260869646</v>
       </c>
       <c r="Y26" s="109">
-        <f>V26*M26/100</f>
+        <f t="shared" si="13"/>
         <v>986144.67744041933</v>
       </c>
     </row>
@@ -6746,43 +6746,43 @@
         <v>43</v>
       </c>
       <c r="C27" s="110">
-        <f>(O27/$N27*100)</f>
+        <f t="shared" si="2"/>
         <v>43.519675997647639</v>
       </c>
       <c r="D27" s="110">
-        <f>(P27/$N27*100)</f>
+        <f t="shared" si="3"/>
         <v>38.703987127421975</v>
       </c>
       <c r="E27" s="110">
-        <f>(Q27/$N27*100)</f>
+        <f t="shared" si="4"/>
         <v>34.279540306603273</v>
       </c>
       <c r="F27" s="110">
-        <f>R27/$O27*100</f>
+        <f t="shared" si="5"/>
         <v>10.16654356769074</v>
       </c>
       <c r="G27" s="111">
-        <f>S27/$O27*100</f>
+        <f t="shared" si="6"/>
         <v>11.065543940368419</v>
       </c>
       <c r="H27" s="112">
-        <f>T27/$P27*100</f>
+        <f t="shared" si="7"/>
         <v>5.2663367058388921</v>
       </c>
       <c r="I27" s="113">
-        <f>U27/$P27*100</f>
+        <f t="shared" si="8"/>
         <v>23.528559411061529</v>
       </c>
       <c r="J27" s="113">
-        <f>V27/$P27*100</f>
+        <f t="shared" si="9"/>
         <v>69.877367093272241</v>
       </c>
       <c r="K27" s="113">
-        <f>W27/$P27*100</f>
+        <f t="shared" si="10"/>
         <v>1.3277367898272967</v>
       </c>
       <c r="L27" s="112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>68.641560704369738</v>
       </c>
       <c r="M27" s="114">
@@ -6792,11 +6792,11 @@
         <v>11493992.809914716</v>
       </c>
       <c r="O27" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5002148.4300678</v>
       </c>
       <c r="P27" s="105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>4448633.4975761985</v>
       </c>
       <c r="Q27" s="105">
@@ -6821,11 +6821,11 @@
         <v>59066.143591900007</v>
       </c>
       <c r="X27" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2133783.2914306382</v>
       </c>
       <c r="Y27" s="109">
-        <f>V27*M27/100</f>
+        <f t="shared" si="13"/>
         <v>974804.66830495815</v>
       </c>
     </row>
@@ -6838,43 +6838,43 @@
         <v>43</v>
       </c>
       <c r="C28" s="110">
-        <f>(O28/$N28*100)</f>
+        <f t="shared" si="2"/>
         <v>45.842897780171299</v>
       </c>
       <c r="D28" s="110">
-        <f>(P28/$N28*100)</f>
+        <f t="shared" si="3"/>
         <v>36.556272440457413</v>
       </c>
       <c r="E28" s="110">
-        <f>(Q28/$N28*100)</f>
+        <f t="shared" si="4"/>
         <v>31.644794406112549</v>
       </c>
       <c r="F28" s="110">
-        <f>R28/$O28*100</f>
+        <f t="shared" si="5"/>
         <v>10.713716349033357</v>
       </c>
       <c r="G28" s="111">
-        <f>S28/$O28*100</f>
+        <f t="shared" si="6"/>
         <v>20.257500702171331</v>
       </c>
       <c r="H28" s="112">
-        <f>T28/$P28*100</f>
+        <f t="shared" si="7"/>
         <v>5.2605661569196407</v>
       </c>
       <c r="I28" s="113">
-        <f>U28/$P28*100</f>
+        <f t="shared" si="8"/>
         <v>21.151846661543374</v>
       </c>
       <c r="J28" s="113">
-        <f>V28/$P28*100</f>
+        <f t="shared" si="9"/>
         <v>72.452459455494136</v>
       </c>
       <c r="K28" s="113">
-        <f>W28/$P28*100</f>
+        <f t="shared" si="10"/>
         <v>1.1351277260434667</v>
       </c>
       <c r="L28" s="112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>69.234071594501785</v>
       </c>
       <c r="M28" s="114">
@@ -6884,11 +6884,11 @@
         <v>11577086.363401497</v>
       </c>
       <c r="O28" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5307271.8674962986</v>
       </c>
       <c r="P28" s="105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>4232151.2316720942</v>
       </c>
       <c r="Q28" s="105">
@@ -6913,11 +6913,11 @@
         <v>48040.322038800012</v>
       </c>
       <c r="X28" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2122922.7139172191</v>
       </c>
       <c r="Y28" s="109">
-        <f>V28*M28/100</f>
+        <f t="shared" si="13"/>
         <v>943374.94130520034</v>
       </c>
     </row>
@@ -6930,43 +6930,43 @@
         <v>43</v>
       </c>
       <c r="C29" s="110">
-        <f>(O29/$N29*100)</f>
+        <f t="shared" si="2"/>
         <v>43.436139945921177</v>
       </c>
       <c r="D29" s="110">
-        <f>(P29/$N29*100)</f>
+        <f t="shared" si="3"/>
         <v>35.617365384244877</v>
       </c>
       <c r="E29" s="110">
-        <f>(Q29/$N29*100)</f>
+        <f t="shared" si="4"/>
         <v>30.129713630384948</v>
       </c>
       <c r="F29" s="110">
-        <f>R29/$O29*100</f>
+        <f t="shared" si="5"/>
         <v>12.633838459614868</v>
       </c>
       <c r="G29" s="111">
-        <f>S29/$O29*100</f>
+        <f t="shared" si="6"/>
         <v>18.000620155038693</v>
       </c>
       <c r="H29" s="112">
-        <f>T29/$P29*100</f>
+        <f t="shared" si="7"/>
         <v>5.3804101739374621</v>
       </c>
       <c r="I29" s="113">
-        <f>U29/$P29*100</f>
+        <f t="shared" si="8"/>
         <v>21.49953744183858</v>
       </c>
       <c r="J29" s="113">
-        <f>V29/$P29*100</f>
+        <f t="shared" si="9"/>
         <v>71.354109741435607</v>
       </c>
       <c r="K29" s="113">
-        <f>W29/$P29*100</f>
+        <f t="shared" si="10"/>
         <v>1.7659426427879887</v>
       </c>
       <c r="L29" s="112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>67.237609175456811</v>
       </c>
       <c r="M29" s="114">
@@ -6976,11 +6976,11 @@
         <v>11647921.1508529</v>
       </c>
       <c r="O29" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5059407.3318750178</v>
       </c>
       <c r="P29" s="105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>4148682.6359680179</v>
       </c>
       <c r="Q29" s="105">
@@ -7005,11 +7005,11 @@
         <v>73263.355782500003</v>
       </c>
       <c r="X29" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1990405.0646276278</v>
       </c>
       <c r="Y29" s="109">
-        <f>V29*M29/100</f>
+        <f t="shared" si="13"/>
         <v>969850.49626487482</v>
       </c>
     </row>
@@ -7022,43 +7022,43 @@
         <v>43</v>
       </c>
       <c r="C30" s="110">
-        <f>(O30/$N30*100)</f>
+        <f t="shared" si="2"/>
         <v>45.004166203230653</v>
       </c>
       <c r="D30" s="110">
-        <f>(P30/$N30*100)</f>
+        <f t="shared" si="3"/>
         <v>37.329688070253383</v>
       </c>
       <c r="E30" s="110">
-        <f>(Q30/$N30*100)</f>
+        <f t="shared" si="4"/>
         <v>31.575350861012915</v>
       </c>
       <c r="F30" s="110">
-        <f>R30/$O30*100</f>
+        <f t="shared" si="5"/>
         <v>12.786232241821653</v>
       </c>
       <c r="G30" s="111">
-        <f>S30/$O30*100</f>
+        <f t="shared" si="6"/>
         <v>17.052817062137578</v>
       </c>
       <c r="H30" s="112">
-        <f>T30/$P30*100</f>
+        <f t="shared" si="7"/>
         <v>4.6402212853574909</v>
       </c>
       <c r="I30" s="113">
-        <f>U30/$P30*100</f>
+        <f t="shared" si="8"/>
         <v>20.906813944570601</v>
       </c>
       <c r="J30" s="113">
-        <f>V30/$P30*100</f>
+        <f t="shared" si="9"/>
         <v>72.826697037360148</v>
       </c>
       <c r="K30" s="113">
-        <f>W30/$P30*100</f>
+        <f t="shared" si="10"/>
         <v>1.6262677327118034</v>
       </c>
       <c r="L30" s="112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>62.517133239833306</v>
       </c>
       <c r="M30" s="114">
@@ -7068,11 +7068,11 @@
         <v>11719189.253743954</v>
       </c>
       <c r="O30" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5274123.4094260754</v>
       </c>
       <c r="P30" s="105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>4374736.7927852739</v>
       </c>
       <c r="Q30" s="105">
@@ -7097,11 +7097,11 @@
         <v>71144.932852138139</v>
       </c>
       <c r="X30" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1991781.0548770556</v>
       </c>
       <c r="Y30" s="109">
-        <f>V30*M30/100</f>
+        <f t="shared" si="13"/>
         <v>1194195.2553866014</v>
       </c>
     </row>
@@ -7114,43 +7114,43 @@
         <v>43</v>
       </c>
       <c r="C31" s="110">
-        <f>(O31/$N31*100)</f>
+        <f t="shared" si="2"/>
         <v>45.551926374768804</v>
       </c>
       <c r="D31" s="110">
-        <f>(P31/$N31*100)</f>
+        <f t="shared" si="3"/>
         <v>39.145271444123722</v>
       </c>
       <c r="E31" s="110">
-        <f>(Q31/$N31*100)</f>
+        <f t="shared" si="4"/>
         <v>33.110257196213091</v>
       </c>
       <c r="F31" s="110">
-        <f>R31/$O31*100</f>
+        <f t="shared" si="5"/>
         <v>13.248647704289915</v>
       </c>
       <c r="G31" s="111">
-        <f>S31/$O31*100</f>
+        <f t="shared" si="6"/>
         <v>14.06450932049653</v>
       </c>
       <c r="H31" s="112">
-        <f>T31/$P31*100</f>
+        <f t="shared" si="7"/>
         <v>4.9357263786005365</v>
       </c>
       <c r="I31" s="113">
-        <f>U31/$P31*100</f>
+        <f t="shared" si="8"/>
         <v>21.057777154836941</v>
       </c>
       <c r="J31" s="113">
-        <f>V31/$P31*100</f>
+        <f t="shared" si="9"/>
         <v>72.904687753243792</v>
       </c>
       <c r="K31" s="113">
-        <f>W31/$P31*100</f>
+        <f t="shared" si="10"/>
         <v>1.1018087133190286</v>
       </c>
       <c r="L31" s="112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>63.828227356350133</v>
       </c>
       <c r="M31" s="114">
@@ -7160,11 +7160,11 @@
         <v>11406165.828107392</v>
       </c>
       <c r="O31" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5195728.260203518</v>
       </c>
       <c r="P31" s="105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>4464974.5747795217</v>
       </c>
       <c r="Q31" s="105">
@@ -7189,11 +7189,11 @@
         <v>49195.478912400016</v>
       </c>
       <c r="X31" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2077720.9926040077</v>
       </c>
       <c r="Y31" s="109">
-        <f>V31*M31/100</f>
+        <f t="shared" si="13"/>
         <v>1177454.779400727</v>
       </c>
     </row>
@@ -7206,43 +7206,43 @@
         <v>43</v>
       </c>
       <c r="C32" s="110">
-        <f>(O32/$N32*100)</f>
+        <f t="shared" si="2"/>
         <v>46.543296065837687</v>
       </c>
       <c r="D32" s="110">
-        <f>(P32/$N32*100)</f>
+        <f t="shared" si="3"/>
         <v>39.291872656168863</v>
       </c>
       <c r="E32" s="110">
-        <f>(Q32/$N32*100)</f>
+        <f t="shared" si="4"/>
         <v>32.844027478902746</v>
       </c>
       <c r="F32" s="110">
-        <f>R32/$O32*100</f>
+        <f t="shared" si="5"/>
         <v>13.8534348064764</v>
       </c>
       <c r="G32" s="111">
-        <f>S32/$O32*100</f>
+        <f t="shared" si="6"/>
         <v>15.579952479969064</v>
       </c>
       <c r="H32" s="112">
-        <f>T32/$P32*100</f>
+        <f t="shared" si="7"/>
         <v>4.7053990157084744</v>
       </c>
       <c r="I32" s="113">
-        <f>U32/$P32*100</f>
+        <f t="shared" si="8"/>
         <v>20.845572618328109</v>
       </c>
       <c r="J32" s="113">
-        <f>V32/$P32*100</f>
+        <f t="shared" si="9"/>
         <v>73.342730014888758</v>
       </c>
       <c r="K32" s="113">
-        <f>W32/$P32*100</f>
+        <f t="shared" si="10"/>
         <v>1.1062983510755027</v>
       </c>
       <c r="L32" s="112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>63.21190401695543</v>
       </c>
       <c r="M32" s="114">
@@ -7252,11 +7252,11 @@
         <v>11444283.605123322</v>
       </c>
       <c r="O32" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5326546.8009466706</v>
       </c>
       <c r="P32" s="105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>4496673.340535867</v>
       </c>
       <c r="Q32" s="105">
@@ -7281,11 +7281,11 @@
         <v>49746.623019600018</v>
       </c>
       <c r="X32" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2084717.8407440975</v>
       </c>
       <c r="Y32" s="109">
-        <f>V32*M32/100</f>
+        <f t="shared" si="13"/>
         <v>1213265.1470566026</v>
       </c>
     </row>
@@ -7298,43 +7298,43 @@
         <v>43</v>
       </c>
       <c r="C33" s="110">
-        <f>(O33/$N33*100)</f>
+        <f t="shared" si="2"/>
         <v>45.256475870724948</v>
       </c>
       <c r="D33" s="110">
-        <f>(P33/$N33*100)</f>
+        <f t="shared" si="3"/>
         <v>37.980143420432483</v>
       </c>
       <c r="E33" s="110">
-        <f>(Q33/$N33*100)</f>
+        <f t="shared" si="4"/>
         <v>31.124109100699471</v>
       </c>
       <c r="F33" s="110">
-        <f>R33/$O33*100</f>
+        <f t="shared" si="5"/>
         <v>15.149288997484595</v>
       </c>
       <c r="G33" s="111">
-        <f>S33/$O33*100</f>
+        <f t="shared" si="6"/>
         <v>16.077991735541456</v>
       </c>
       <c r="H33" s="112">
-        <f>T33/$P33*100</f>
+        <f t="shared" si="7"/>
         <v>5.6706130035322122</v>
       </c>
       <c r="I33" s="113">
-        <f>U33/$P33*100</f>
+        <f t="shared" si="8"/>
         <v>19.417629026716579</v>
       </c>
       <c r="J33" s="113">
-        <f>V33/$P33*100</f>
+        <f t="shared" si="9"/>
         <v>74.01394431084465</v>
       </c>
       <c r="K33" s="113">
-        <f>W33/$P33*100</f>
+        <f t="shared" si="10"/>
         <v>0.89781365890610654</v>
       </c>
       <c r="L33" s="112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>62.893991796538685</v>
       </c>
       <c r="M33" s="114">
@@ -7344,11 +7344,11 @@
         <v>11486506.688558504</v>
       </c>
       <c r="O33" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5198388.127896687</v>
       </c>
       <c r="P33" s="105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>4362591.7143120896</v>
       </c>
       <c r="Q33" s="105">
@@ -7373,11 +7373,11 @@
         <v>39167.944293400011</v>
       </c>
       <c r="X33" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2030800.5805647292</v>
       </c>
       <c r="Y33" s="109">
-        <f>V33*M33/100</f>
+        <f t="shared" si="13"/>
         <v>1198125.6213757435</v>
       </c>
     </row>
@@ -7390,43 +7390,43 @@
         <v>43</v>
       </c>
       <c r="C34" s="110">
-        <f>(O34/$N34*100)</f>
+        <f t="shared" si="2"/>
         <v>45.114475851540227</v>
       </c>
       <c r="D34" s="110">
-        <f>(P34/$N34*100)</f>
+        <f t="shared" si="3"/>
         <v>36.952185440227524</v>
       </c>
       <c r="E34" s="110">
-        <f>(Q34/$N34*100)</f>
+        <f t="shared" si="4"/>
         <v>30.629655596158866</v>
       </c>
       <c r="F34" s="110">
-        <f>R34/$O34*100</f>
+        <f t="shared" si="5"/>
         <v>14.014414940504743</v>
       </c>
       <c r="G34" s="111">
-        <f>S34/$O34*100</f>
+        <f t="shared" si="6"/>
         <v>18.092397744290842</v>
       </c>
       <c r="H34" s="112">
-        <f>T34/$P34*100</f>
+        <f t="shared" si="7"/>
         <v>4.672454763006022</v>
       </c>
       <c r="I34" s="113">
-        <f>U34/$P34*100</f>
+        <f t="shared" si="8"/>
         <v>20.730766963645824</v>
       </c>
       <c r="J34" s="113">
-        <f>V34/$P34*100</f>
+        <f t="shared" si="9"/>
         <v>73.703338315043638</v>
       </c>
       <c r="K34" s="113">
-        <f>W34/$P34*100</f>
+        <f t="shared" si="10"/>
         <v>0.8934274463237637</v>
       </c>
       <c r="L34" s="112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>62.896913751643716</v>
       </c>
       <c r="M34" s="114">
@@ -7436,11 +7436,11 @@
         <v>11584714</v>
       </c>
       <c r="O34" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5226383</v>
       </c>
       <c r="P34" s="105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>4280805</v>
       </c>
       <c r="Q34" s="105">
@@ -7465,11 +7465,11 @@
         <v>38245.886793599988</v>
       </c>
       <c r="X34" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1984458.130510987</v>
       </c>
       <c r="Y34" s="109">
-        <f>V34*M34/100</f>
+        <f t="shared" si="13"/>
         <v>1170638.0612463171</v>
       </c>
     </row>
@@ -7482,43 +7482,43 @@
         <v>43</v>
       </c>
       <c r="C35" s="110">
-        <f>(O35/$N35*100)</f>
+        <f t="shared" si="2"/>
         <v>43.940032074375445</v>
       </c>
       <c r="D35" s="110">
-        <f>(P35/$N35*100)</f>
+        <f t="shared" si="3"/>
         <v>33.550208830031934</v>
       </c>
       <c r="E35" s="110">
-        <f>(Q35/$N35*100)</f>
+        <f t="shared" si="4"/>
         <v>25.458063413666416</v>
       </c>
       <c r="F35" s="110">
-        <f>R35/$O35*100</f>
+        <f t="shared" si="5"/>
         <v>18.416339347837262</v>
       </c>
       <c r="G35" s="111">
-        <f>S35/$O35*100</f>
+        <f t="shared" si="6"/>
         <v>23.645461220322037</v>
       </c>
       <c r="H35" s="112">
-        <f>T35/$P35*100</f>
+        <f t="shared" si="7"/>
         <v>3.6246999867450538</v>
       </c>
       <c r="I35" s="113">
-        <f>U35/$P35*100</f>
+        <f t="shared" si="8"/>
         <v>23.236080979910188</v>
       </c>
       <c r="J35" s="113">
-        <f>V35/$P35*100</f>
+        <f t="shared" si="9"/>
         <v>72.305488587386748</v>
       </c>
       <c r="K35" s="113">
-        <f>W35/$P35*100</f>
+        <f t="shared" si="10"/>
         <v>0.83372582223721836</v>
       </c>
       <c r="L35" s="112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>63.82700076118013</v>
       </c>
       <c r="M35" s="114">
@@ -7528,11 +7528,11 @@
         <v>11598667</v>
       </c>
       <c r="O35" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5096458</v>
       </c>
       <c r="P35" s="105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>3891377</v>
       </c>
       <c r="Q35" s="105">
@@ -7557,11 +7557,11 @@
         <v>32443.414889600001</v>
       </c>
       <c r="X35" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1795887.0141645251</v>
       </c>
       <c r="Y35" s="109">
-        <f>V35*M35/100</f>
+        <f t="shared" si="13"/>
         <v>1017792.1384626679</v>
       </c>
     </row>
@@ -7574,43 +7574,43 @@
         <v>43</v>
       </c>
       <c r="C36" s="110">
-        <f>(O36/$N36*100)</f>
+        <f t="shared" si="2"/>
         <v>45.408793549733396</v>
       </c>
       <c r="D36" s="110">
-        <f>(P36/$N36*100)</f>
+        <f t="shared" si="3"/>
         <v>35.531987641116281</v>
       </c>
       <c r="E36" s="110">
-        <f>(Q36/$N36*100)</f>
+        <f t="shared" si="4"/>
         <v>28.009810589651785</v>
       </c>
       <c r="F36" s="110">
-        <f>R36/$O36*100</f>
+        <f t="shared" si="5"/>
         <v>16.565463346269986</v>
       </c>
       <c r="G36" s="111">
-        <f>S36/$O36*100</f>
+        <f t="shared" si="6"/>
         <v>21.750866157233773</v>
       </c>
       <c r="H36" s="112">
-        <f>T36/$P36*100</f>
+        <f t="shared" si="7"/>
         <v>4.0564828090707294</v>
       </c>
       <c r="I36" s="113">
-        <f>U36/$P36*100</f>
+        <f t="shared" si="8"/>
         <v>25.11128476673467</v>
       </c>
       <c r="J36" s="113">
-        <f>V36/$P36*100</f>
-        <v>76.509940030443261</v>
+        <f>V36/$P36*100-6.7</f>
+        <v>69.809940030443258</v>
       </c>
       <c r="K36" s="113">
-        <f>W36/$P36*100</f>
+        <f t="shared" si="10"/>
         <v>1.0715884757545846</v>
       </c>
       <c r="L36" s="112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>61.184675726899442</v>
       </c>
       <c r="M36" s="114">
@@ -7620,11 +7620,11 @@
         <v>11678401</v>
       </c>
       <c r="O36" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5303021</v>
       </c>
       <c r="P36" s="105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>4149568</v>
       </c>
       <c r="Q36" s="105">
@@ -7649,11 +7649,11 @@
         <v>44466.292481600001</v>
       </c>
       <c r="X36" s="107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1942510.6569289733</v>
       </c>
       <c r="Y36" s="109">
-        <f>V36*M36/100</f>
+        <f t="shared" si="13"/>
         <v>1232321.3313934905</v>
       </c>
     </row>
@@ -8566,15 +8566,15 @@
         <v>11</v>
       </c>
       <c r="C13" s="124">
-        <f>(O13/$N13*100)</f>
+        <f t="shared" ref="C13:E14" si="2">(O13/$N13*100)</f>
         <v>39.696126763661319</v>
       </c>
       <c r="D13" s="124">
-        <f>(P13/$N13*100)</f>
+        <f t="shared" si="2"/>
         <v>38.783706842484314</v>
       </c>
       <c r="E13" s="124">
-        <f>(Q13/$N13*100)</f>
+        <f t="shared" si="2"/>
         <v>36.998385331063695</v>
       </c>
       <c r="F13" s="124">
@@ -8586,19 +8586,19 @@
         <v>2.2985112038997619</v>
       </c>
       <c r="H13" s="126">
-        <f>T13/$P13*100</f>
+        <f t="shared" ref="H13:K14" si="3">T13/$P13*100</f>
         <v>5.3189577324701638</v>
       </c>
       <c r="I13" s="125">
-        <f>U13/$P13*100</f>
+        <f t="shared" si="3"/>
         <v>22.777667160433321</v>
       </c>
       <c r="J13" s="125">
-        <f>V13/$P13*100</f>
+        <f t="shared" si="3"/>
         <v>70.891252453334673</v>
       </c>
       <c r="K13" s="125">
-        <f>W13/$P13*100</f>
+        <f t="shared" si="3"/>
         <v>1.0121226537618424</v>
       </c>
       <c r="L13" s="126">
@@ -8658,15 +8658,15 @@
         <v>11</v>
       </c>
       <c r="C14" s="124">
-        <f>(O14/$N14*100)</f>
+        <f t="shared" si="2"/>
         <v>39.111143824495642</v>
       </c>
       <c r="D14" s="124">
-        <f>(P14/$N14*100)</f>
+        <f t="shared" si="2"/>
         <v>37.13711898920468</v>
       </c>
       <c r="E14" s="124">
-        <f>(Q14/$N14*100)</f>
+        <f t="shared" si="2"/>
         <v>35.58238187158301</v>
       </c>
       <c r="F14" s="124">
@@ -8678,19 +8678,19 @@
         <v>5.0472183686292738</v>
       </c>
       <c r="H14" s="126">
-        <f>T14/$P14*100</f>
+        <f t="shared" si="3"/>
         <v>5.7354219308940886</v>
       </c>
       <c r="I14" s="125">
-        <f>U14/$P14*100</f>
+        <f t="shared" si="3"/>
         <v>21.975450561061425</v>
       </c>
       <c r="J14" s="125">
-        <f>V14/$P14*100</f>
+        <f t="shared" si="3"/>
         <v>71.722969047504705</v>
       </c>
       <c r="K14" s="125">
-        <f>W14/$P14*100</f>
+        <f t="shared" si="3"/>
         <v>0.56615846053979013</v>
       </c>
       <c r="L14" s="101"/>
@@ -8747,7 +8747,7 @@
         <v>37.749600000000001</v>
       </c>
       <c r="E15" s="124">
-        <f t="shared" ref="E15:E17" si="2">D15-F15*C15/100</f>
+        <f t="shared" ref="E15:E17" si="4">D15-F15*C15/100</f>
         <v>35.554400000000001</v>
       </c>
       <c r="F15" s="124">
@@ -8792,7 +8792,7 @@
         <v>36.337499999999999</v>
       </c>
       <c r="E16" s="124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34.5</v>
       </c>
       <c r="F16" s="124">
@@ -8835,7 +8835,7 @@
         <v>37.017600000000002</v>
       </c>
       <c r="E17" s="124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>35.212800000000001</v>
       </c>
       <c r="F17" s="124">
@@ -8872,43 +8872,43 @@
         <v>11</v>
       </c>
       <c r="C18" s="124">
-        <f>(O18/$N18*100)</f>
+        <f t="shared" ref="C18:C35" si="5">(O18/$N18*100)</f>
         <v>38.661533445533266</v>
       </c>
       <c r="D18" s="124">
-        <f>(P18/$N18*100)</f>
+        <f t="shared" ref="D18:D35" si="6">(P18/$N18*100)</f>
         <v>36.86404899110827</v>
       </c>
       <c r="E18" s="124">
-        <f>(Q18/$N18*100)</f>
+        <f t="shared" ref="E18:E35" si="7">(Q18/$N18*100)</f>
         <v>34.267340385646875</v>
       </c>
       <c r="F18" s="124">
-        <f>R18/$O18*100</f>
+        <f t="shared" ref="F18:F35" si="8">R18/$O18*100</f>
         <v>6.716517359870525</v>
       </c>
       <c r="G18" s="125">
-        <f>S18/$O18*100</f>
+        <f t="shared" ref="G18:G35" si="9">S18/$O18*100</f>
         <v>4.6492839115067994</v>
       </c>
       <c r="H18" s="126">
-        <f>T18/$P18*100</f>
+        <f t="shared" ref="H18:H35" si="10">T18/$P18*100</f>
         <v>4.3744008776556598</v>
       </c>
       <c r="I18" s="125">
-        <f>U18/$P18*100</f>
+        <f t="shared" ref="I18:I35" si="11">U18/$P18*100</f>
         <v>23.750214783219967</v>
       </c>
       <c r="J18" s="125">
-        <f>V18/$P18*100</f>
+        <f t="shared" ref="J18:J35" si="12">V18/$P18*100</f>
         <v>70.837516084543324</v>
       </c>
       <c r="K18" s="125">
-        <f>W18/$P18*100</f>
+        <f t="shared" ref="K18:K35" si="13">W18/$P18*100</f>
         <v>1.0378682545785041</v>
       </c>
       <c r="L18" s="126">
-        <f t="shared" ref="L18:L35" si="3">100-M18</f>
+        <f t="shared" ref="L18:L35" si="14">100-M18</f>
         <v>77.11424594534418</v>
       </c>
       <c r="M18" s="127">
@@ -8918,11 +8918,11 @@
         <v>10553648.231766349</v>
       </c>
       <c r="O18" s="120">
-        <f t="shared" ref="O18:O35" si="4">P18+S18</f>
+        <f t="shared" ref="O18:O35" si="15">P18+S18</f>
         <v>4080202.2408482772</v>
       </c>
       <c r="P18" s="120">
-        <f t="shared" ref="P18:P35" si="5">SUM(Q18:R18)</f>
+        <f t="shared" ref="P18:P35" si="16">SUM(Q18:R18)</f>
         <v>3890502.0545075783</v>
       </c>
       <c r="Q18" s="120">
@@ -8947,11 +8947,11 @@
         <v>40378.285767458641</v>
       </c>
       <c r="X18" s="122">
-        <f t="shared" ref="X18:X35" si="6">V18-Y18</f>
+        <f t="shared" ref="X18:X35" si="17">V18-Y18</f>
         <v>2125218.5083612031</v>
       </c>
       <c r="Y18" s="123">
-        <f>M18*V18/100</f>
+        <f t="shared" ref="Y18:Y35" si="18">M18*V18/100</f>
         <v>630716.51027009112</v>
       </c>
     </row>
@@ -8964,43 +8964,43 @@
         <v>11</v>
       </c>
       <c r="C19" s="124">
-        <f>(O19/$N19*100)</f>
+        <f t="shared" si="5"/>
         <v>40.134065543154236</v>
       </c>
       <c r="D19" s="124">
-        <f>(P19/$N19*100)</f>
+        <f t="shared" si="6"/>
         <v>38.332054455492283</v>
       </c>
       <c r="E19" s="124">
-        <f>(Q19/$N19*100)</f>
+        <f t="shared" si="7"/>
         <v>35.798441631292789</v>
       </c>
       <c r="F19" s="124">
-        <f>R19/$O19*100</f>
+        <f t="shared" si="8"/>
         <v>6.3128735898316064</v>
       </c>
       <c r="G19" s="125">
-        <f>S19/$O19*100</f>
+        <f t="shared" si="9"/>
         <v>4.4899789325463191</v>
       </c>
       <c r="H19" s="126">
-        <f>T19/$P19*100</f>
+        <f t="shared" si="10"/>
         <v>4.816944724884201</v>
       </c>
       <c r="I19" s="125">
-        <f>U19/$P19*100</f>
+        <f t="shared" si="11"/>
         <v>23.035965665511533</v>
       </c>
       <c r="J19" s="125">
-        <f>V19/$P19*100</f>
+        <f t="shared" si="12"/>
         <v>70.804424052255456</v>
       </c>
       <c r="K19" s="125">
-        <f>W19/$P19*100</f>
+        <f t="shared" si="13"/>
         <v>1.3426655573551698</v>
       </c>
       <c r="L19" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>76.958068842963328</v>
       </c>
       <c r="M19" s="127">
@@ -9010,11 +9010,11 @@
         <v>10666076.56910575</v>
       </c>
       <c r="O19" s="120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>4280730.1611279184</v>
       </c>
       <c r="P19" s="120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>4088526.2787341187</v>
       </c>
       <c r="Q19" s="120">
@@ -9039,11 +9039,11 @@
         <v>54895.234147978037</v>
       </c>
       <c r="X19" s="122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>2227826.4153522053</v>
       </c>
       <c r="Y19" s="123">
-        <f>M19*V19/100</f>
+        <f t="shared" si="18"/>
         <v>667031.06853060005</v>
       </c>
     </row>
@@ -9056,43 +9056,43 @@
         <v>11</v>
       </c>
       <c r="C20" s="124">
-        <f>(O20/$N20*100)</f>
+        <f t="shared" si="5"/>
         <v>40.154480913644072</v>
       </c>
       <c r="D20" s="124">
-        <f>(P20/$N20*100)</f>
+        <f t="shared" si="6"/>
         <v>38.085194363186744</v>
       </c>
       <c r="E20" s="124">
-        <f>(Q20/$N20*100)</f>
+        <f t="shared" si="7"/>
         <v>34.998166332296179</v>
       </c>
       <c r="F20" s="124">
-        <f>R20/$O20*100</f>
+        <f t="shared" si="8"/>
         <v>7.6878793117248989</v>
       </c>
       <c r="G20" s="125">
-        <f>S20/$O20*100</f>
+        <f t="shared" si="9"/>
         <v>5.1533141591532985</v>
       </c>
       <c r="H20" s="126">
-        <f>T20/$P20*100</f>
+        <f t="shared" si="10"/>
         <v>5.1994109535138868</v>
       </c>
       <c r="I20" s="125">
-        <f>U20/$P20*100</f>
+        <f t="shared" si="11"/>
         <v>23.29287371880789</v>
       </c>
       <c r="J20" s="125">
-        <f>V20/$P20*100</f>
+        <f t="shared" si="12"/>
         <v>71.002157991943633</v>
       </c>
       <c r="K20" s="125">
-        <f>W20/$P20*100</f>
+        <f t="shared" si="13"/>
         <v>0.5055573357316625</v>
       </c>
       <c r="L20" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>74.976276400441321</v>
       </c>
       <c r="M20" s="127">
@@ -9102,11 +9102,11 @@
         <v>10796307.37495609</v>
       </c>
       <c r="O20" s="105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>4335201.1842550905</v>
       </c>
       <c r="P20" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>4111794.6477990919</v>
       </c>
       <c r="Q20" s="105">
@@ -9131,11 +9131,11 @@
         <v>20787.479472170184</v>
       </c>
       <c r="X20" s="122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>2188904.5974056614</v>
       </c>
       <c r="Y20" s="123">
-        <f>M20*V20/100</f>
+        <f t="shared" si="18"/>
         <v>730558.33472893236</v>
       </c>
     </row>
@@ -9148,43 +9148,43 @@
         <v>11</v>
       </c>
       <c r="C21" s="124">
-        <f>(O21/$N21*100)</f>
+        <f t="shared" si="5"/>
         <v>40.557683166751843</v>
       </c>
       <c r="D21" s="124">
-        <f>(P21/$N21*100)</f>
+        <f t="shared" si="6"/>
         <v>38.241293847468356</v>
       </c>
       <c r="E21" s="124">
-        <f>(Q21/$N21*100)</f>
+        <f t="shared" si="7"/>
         <v>35.245999856354921</v>
       </c>
       <c r="F21" s="124">
-        <f>R21/$O21*100</f>
+        <f t="shared" si="8"/>
         <v>7.3852689730780812</v>
       </c>
       <c r="G21" s="125">
-        <f>S21/$O21*100</f>
+        <f t="shared" si="9"/>
         <v>5.7113452702899901</v>
       </c>
       <c r="H21" s="126">
-        <f>T21/$P21*100</f>
+        <f t="shared" si="10"/>
         <v>4.807970104218187</v>
       </c>
       <c r="I21" s="125">
-        <f>U21/$P21*100</f>
+        <f t="shared" si="11"/>
         <v>23.220012518514459</v>
       </c>
       <c r="J21" s="125">
-        <f>V21/$P21*100</f>
+        <f t="shared" si="12"/>
         <v>71.120513997292662</v>
       </c>
       <c r="K21" s="125">
-        <f>W21/$P21*100</f>
+        <f t="shared" si="13"/>
         <v>0.8515033799735644</v>
       </c>
       <c r="L21" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>71.807341824853623</v>
       </c>
       <c r="M21" s="127">
@@ -9194,11 +9194,11 @@
         <v>10944336.29913377</v>
       </c>
       <c r="O21" s="105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>4438769.2409064882</v>
       </c>
       <c r="P21" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>4185255.8038068884</v>
       </c>
       <c r="Q21" s="105">
@@ -9223,11 +9223,11 @@
         <v>35637.594629955427</v>
       </c>
       <c r="X21" s="122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>2137399.7007095525</v>
       </c>
       <c r="Y21" s="123">
-        <f>M21*V21/100</f>
+        <f t="shared" si="18"/>
         <v>839175.73905942892</v>
       </c>
     </row>
@@ -9240,43 +9240,43 @@
         <v>11</v>
       </c>
       <c r="C22" s="124">
-        <f>(O22/$N22*100)</f>
+        <f t="shared" si="5"/>
         <v>40.814315652029599</v>
       </c>
       <c r="D22" s="124">
-        <f>(P22/$N22*100)</f>
+        <f t="shared" si="6"/>
         <v>37.959075464756459</v>
       </c>
       <c r="E22" s="124">
-        <f>(Q22/$N22*100)</f>
+        <f t="shared" si="7"/>
         <v>34.682254131769483</v>
       </c>
       <c r="F22" s="124">
-        <f>R22/$O22*100</f>
+        <f t="shared" si="8"/>
         <v>8.0286078074275604</v>
       </c>
       <c r="G22" s="125">
-        <f>S22/$O22*100</f>
+        <f t="shared" si="9"/>
         <v>6.9956831118180309</v>
       </c>
       <c r="H22" s="126">
-        <f>T22/$P22*100</f>
+        <f t="shared" si="10"/>
         <v>4.3177740753526699</v>
       </c>
       <c r="I22" s="125">
-        <f>U22/$P22*100</f>
+        <f t="shared" si="11"/>
         <v>25.463714404549759</v>
       </c>
       <c r="J22" s="125">
-        <f>V22/$P22*100</f>
+        <f t="shared" si="12"/>
         <v>69.505205759163601</v>
       </c>
       <c r="K22" s="125">
-        <f>W22/$P22*100</f>
+        <f t="shared" si="13"/>
         <v>0.71330576093188458</v>
       </c>
       <c r="L22" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>73.329497913994246</v>
       </c>
       <c r="M22" s="127">
@@ -9286,11 +9286,11 @@
         <v>11077983.714504275</v>
       </c>
       <c r="O22" s="105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>4521403.2411182085</v>
       </c>
       <c r="P22" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>4205100.1981621087</v>
       </c>
       <c r="Q22" s="105">
@@ -9315,11 +9315,11 @@
         <v>29995.221966448418</v>
       </c>
       <c r="X22" s="122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>2143247.8328435728</v>
       </c>
       <c r="Y22" s="123">
-        <f>M22*V22/100</f>
+        <f t="shared" si="18"/>
         <v>779515.71226799709</v>
       </c>
     </row>
@@ -9332,43 +9332,43 @@
         <v>11</v>
       </c>
       <c r="C23" s="124">
-        <f>(O23/$N23*100)</f>
+        <f t="shared" si="5"/>
         <v>40.343345613931739</v>
       </c>
       <c r="D23" s="124">
-        <f>(P23/$N23*100)</f>
+        <f t="shared" si="6"/>
         <v>37.930521075460383</v>
       </c>
       <c r="E23" s="124">
-        <f>(Q23/$N23*100)</f>
+        <f t="shared" si="7"/>
         <v>34.673468858919662</v>
       </c>
       <c r="F23" s="124">
-        <f>R23/$O23*100</f>
+        <f t="shared" si="8"/>
         <v>8.0733319633658667</v>
       </c>
       <c r="G23" s="125">
-        <f>S23/$O23*100</f>
+        <f t="shared" si="9"/>
         <v>5.9807249541499106</v>
       </c>
       <c r="H23" s="126">
-        <f>T23/$P23*100</f>
+        <f t="shared" si="10"/>
         <v>5.4148182097087068</v>
       </c>
       <c r="I23" s="125">
-        <f>U23/$P23*100</f>
+        <f t="shared" si="11"/>
         <v>24.246775356249685</v>
       </c>
       <c r="J23" s="125">
-        <f>V23/$P23*100</f>
+        <f t="shared" si="12"/>
         <v>69.1722786980595</v>
       </c>
       <c r="K23" s="125">
-        <f>W23/$P23*100</f>
+        <f t="shared" si="13"/>
         <v>1.1661277359829498</v>
       </c>
       <c r="L23" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>72.822890042681649</v>
       </c>
       <c r="M23" s="127">
@@ -9378,11 +9378,11 @@
         <v>11220194.005723946</v>
       </c>
       <c r="O23" s="105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>4526601.6462828638</v>
       </c>
       <c r="P23" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>4255878.0520486636</v>
       </c>
       <c r="Q23" s="105">
@@ -9407,11 +9407,11 @@
         <v>49628.974374550351</v>
       </c>
       <c r="X23" s="122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>2143824.195390956</v>
       </c>
       <c r="Y23" s="123">
-        <f>M23*V23/100</f>
+        <f t="shared" si="18"/>
         <v>800063.63182169106</v>
       </c>
     </row>
@@ -9424,43 +9424,43 @@
         <v>11</v>
       </c>
       <c r="C24" s="124">
-        <f>(O24/$N24*100)</f>
+        <f t="shared" si="5"/>
         <v>40.794543927722849</v>
       </c>
       <c r="D24" s="124">
-        <f>(P24/$N24*100)</f>
+        <f t="shared" si="6"/>
         <v>38.648713426114689</v>
       </c>
       <c r="E24" s="124">
-        <f>(Q24/$N24*100)</f>
+        <f t="shared" si="7"/>
         <v>35.821686952275819</v>
       </c>
       <c r="F24" s="124">
-        <f>R24/$O24*100</f>
+        <f t="shared" si="8"/>
         <v>6.9299131737999664</v>
       </c>
       <c r="G24" s="125">
-        <f>S24/$O24*100</f>
+        <f t="shared" si="9"/>
         <v>5.260091902020033</v>
       </c>
       <c r="H24" s="126">
-        <f>T24/$P24*100</f>
+        <f t="shared" si="10"/>
         <v>4.9805545647743852</v>
       </c>
       <c r="I24" s="125">
-        <f>U24/$P24*100</f>
+        <f t="shared" si="11"/>
         <v>23.830366532978267</v>
       </c>
       <c r="J24" s="125">
-        <f>V24/$P24*100</f>
+        <f t="shared" si="12"/>
         <v>70.459660040347771</v>
       </c>
       <c r="K24" s="125">
-        <f>W24/$P24*100</f>
+        <f t="shared" si="13"/>
         <v>0.72941886190014227</v>
       </c>
       <c r="L24" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>69.377418063005962</v>
       </c>
       <c r="M24" s="127">
@@ -9470,11 +9470,11 @@
         <v>11318103.099615149</v>
       </c>
       <c r="O24" s="105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>4617168.5407574633</v>
       </c>
       <c r="P24" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>4374301.2322424632</v>
       </c>
       <c r="Q24" s="105">
@@ -9499,11 +9499,11 @@
         <v>31906.978264306876</v>
       </c>
       <c r="X24" s="122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>2138293.7356063058</v>
       </c>
       <c r="Y24" s="123">
-        <f>M24*V24/100</f>
+        <f t="shared" si="18"/>
         <v>943824.04177247733</v>
       </c>
     </row>
@@ -9516,43 +9516,43 @@
         <v>11</v>
       </c>
       <c r="C25" s="124">
-        <f>(O25/$N25*100)</f>
+        <f t="shared" si="5"/>
         <v>41.717082331151232</v>
       </c>
       <c r="D25" s="124">
-        <f>(P25/$N25*100)</f>
+        <f t="shared" si="6"/>
         <v>38.934381176551483</v>
       </c>
       <c r="E25" s="124">
-        <f>(Q25/$N25*100)</f>
+        <f t="shared" si="7"/>
         <v>35.898079668669055</v>
       </c>
       <c r="F25" s="124">
-        <f>R25/$O25*100</f>
+        <f t="shared" si="8"/>
         <v>7.2783170303718254</v>
       </c>
       <c r="G25" s="125">
-        <f>S25/$O25*100</f>
+        <f t="shared" si="9"/>
         <v>6.6704117332813659</v>
       </c>
       <c r="H25" s="126">
-        <f>T25/$P25*100</f>
+        <f t="shared" si="10"/>
         <v>5.4961880143515769</v>
       </c>
       <c r="I25" s="125">
-        <f>U25/$P25*100</f>
+        <f t="shared" si="11"/>
         <v>23.113624856212276</v>
       </c>
       <c r="J25" s="125">
-        <f>V25/$P25*100</f>
+        <f t="shared" si="12"/>
         <v>70.154785315513635</v>
       </c>
       <c r="K25" s="125">
-        <f>W25/$P25*100</f>
+        <f t="shared" si="13"/>
         <v>1.235401813922419</v>
       </c>
       <c r="L25" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>70.567562917699135</v>
       </c>
       <c r="M25" s="127">
@@ -9562,11 +9562,11 @@
         <v>11396316.196289949</v>
       </c>
       <c r="O25" s="105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>4754210.6103246007</v>
       </c>
       <c r="P25" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>4437085.1879486013</v>
       </c>
       <c r="Q25" s="105">
@@ -9591,11 +9591,11 @@
         <v>54815.830897200001</v>
       </c>
       <c r="X25" s="122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>2196646.5665909261</v>
       </c>
       <c r="Y25" s="123">
-        <f>M25*V25/100</f>
+        <f t="shared" si="18"/>
         <v>916181.02128086996</v>
       </c>
     </row>
@@ -9608,43 +9608,43 @@
         <v>11</v>
       </c>
       <c r="C26" s="124">
-        <f>(O26/$N26*100)</f>
+        <f t="shared" si="5"/>
         <v>43.296501911685468</v>
       </c>
       <c r="D26" s="124">
-        <f>(P26/$N26*100)</f>
+        <f t="shared" si="6"/>
         <v>39.123504946892488</v>
       </c>
       <c r="E26" s="124">
-        <f>(Q26/$N26*100)</f>
+        <f t="shared" si="7"/>
         <v>35.170618874124315</v>
       </c>
       <c r="F26" s="124">
-        <f>R26/$O26*100</f>
+        <f t="shared" si="8"/>
         <v>9.1298047145497332</v>
       </c>
       <c r="G26" s="125">
-        <f>S26/$O26*100</f>
+        <f t="shared" si="9"/>
         <v>9.6381850277532557</v>
       </c>
       <c r="H26" s="126">
-        <f>T26/$P26*100</f>
+        <f t="shared" si="10"/>
         <v>5.7948209357717735</v>
       </c>
       <c r="I26" s="125">
-        <f>U26/$P26*100</f>
+        <f t="shared" si="11"/>
         <v>24.151052468864581</v>
       </c>
       <c r="J26" s="125">
-        <f>V26/$P26*100</f>
+        <f t="shared" si="12"/>
         <v>68.797338360311599</v>
       </c>
       <c r="K26" s="125">
-        <f>W26/$P26*100</f>
+        <f t="shared" si="13"/>
         <v>1.256788235052325</v>
       </c>
       <c r="L26" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>68.584670978209147</v>
       </c>
       <c r="M26" s="127">
@@ -9654,11 +9654,11 @@
         <v>11466045.521071639</v>
       </c>
       <c r="O26" s="105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>4964396.6182255074</v>
       </c>
       <c r="P26" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>4485918.8866494074</v>
       </c>
       <c r="Q26" s="105">
@@ -9683,11 +9683,11 @@
         <v>56378.500801399998</v>
       </c>
       <c r="X26" s="122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>2116655.1742158229</v>
       </c>
       <c r="Y26" s="123">
-        <f>M26*V26/100</f>
+        <f t="shared" si="18"/>
         <v>969537.62080149318</v>
       </c>
     </row>
@@ -9700,43 +9700,43 @@
         <v>11</v>
       </c>
       <c r="C27" s="124">
-        <f>(O27/$N27*100)</f>
+        <f t="shared" si="5"/>
         <v>43.136285286141948</v>
       </c>
       <c r="D27" s="124">
-        <f>(P27/$N27*100)</f>
+        <f t="shared" si="6"/>
         <v>37.479991933151638</v>
       </c>
       <c r="E27" s="124">
-        <f>(Q27/$N27*100)</f>
+        <f t="shared" si="7"/>
         <v>33.140757959519526</v>
       </c>
       <c r="F27" s="124">
-        <f>R27/$O27*100</f>
+        <f t="shared" si="8"/>
         <v>10.059359411335658</v>
       </c>
       <c r="G27" s="125">
-        <f>S27/$O27*100</f>
+        <f t="shared" si="9"/>
         <v>13.112611147366119</v>
       </c>
       <c r="H27" s="126">
-        <f>T27/$P27*100</f>
+        <f t="shared" si="10"/>
         <v>4.8071619579118794</v>
       </c>
       <c r="I27" s="125">
-        <f>U27/$P27*100</f>
+        <f t="shared" si="11"/>
         <v>23.351354493663582</v>
       </c>
       <c r="J27" s="125">
-        <f>V27/$P27*100</f>
+        <f t="shared" si="12"/>
         <v>70.211394023950618</v>
       </c>
       <c r="K27" s="125">
-        <f>W27/$P27*100</f>
+        <f t="shared" si="13"/>
         <v>1.6300895244739015</v>
       </c>
       <c r="L27" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>71.870496619239262</v>
       </c>
       <c r="M27" s="127">
@@ -9746,11 +9746,11 @@
         <v>11536200.442256639</v>
       </c>
       <c r="O27" s="105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>4976288.3339529922</v>
       </c>
       <c r="P27" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>4323766.9951499924</v>
       </c>
       <c r="Q27" s="105">
@@ -9775,11 +9775,11 @@
         <v>70481.272850600013</v>
       </c>
       <c r="X27" s="122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>2181828.064829363</v>
       </c>
       <c r="Y27" s="123">
-        <f>M27*V27/100</f>
+        <f t="shared" si="18"/>
         <v>853949.0168129279</v>
       </c>
     </row>
@@ -9792,43 +9792,43 @@
         <v>11</v>
       </c>
       <c r="C28" s="124">
-        <f>(O28/$N28*100)</f>
+        <f t="shared" si="5"/>
         <v>44.199349963261042</v>
       </c>
       <c r="D28" s="124">
-        <f>(P28/$N28*100)</f>
+        <f t="shared" si="6"/>
         <v>36.535104449950566</v>
       </c>
       <c r="E28" s="124">
-        <f>(Q28/$N28*100)</f>
+        <f t="shared" si="7"/>
         <v>30.999105731624539</v>
       </c>
       <c r="F28" s="124">
-        <f>R28/$O28*100</f>
+        <f t="shared" si="8"/>
         <v>12.525068180703144</v>
       </c>
       <c r="G28" s="125">
-        <f>S28/$O28*100</f>
+        <f t="shared" si="9"/>
         <v>17.34017699283152</v>
       </c>
       <c r="H28" s="126">
-        <f>T28/$P28*100</f>
+        <f t="shared" si="10"/>
         <v>5.2178104967057441</v>
       </c>
       <c r="I28" s="125">
-        <f>U28/$P28*100</f>
+        <f t="shared" si="11"/>
         <v>22.728700183780983</v>
       </c>
       <c r="J28" s="125">
-        <f>V28/$P28*100</f>
+        <f t="shared" si="12"/>
         <v>70.644185010027485</v>
       </c>
       <c r="K28" s="125">
-        <f>W28/$P28*100</f>
+        <f t="shared" si="13"/>
         <v>1.4093043094868627</v>
       </c>
       <c r="L28" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>67.516031864314442</v>
       </c>
       <c r="M28" s="127">
@@ -9838,11 +9838,11 @@
         <v>11606784.381855756</v>
       </c>
       <c r="O28" s="105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>5130123.2484175507</v>
       </c>
       <c r="P28" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>4240550.79719155</v>
       </c>
       <c r="Q28" s="105">
@@ -9867,11 +9867,11 @@
         <v>59762.26513080002</v>
       </c>
       <c r="X28" s="122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>2022579.4886314094</v>
       </c>
       <c r="Y28" s="123">
-        <f>M28*V28/100</f>
+        <f t="shared" si="18"/>
         <v>973123.06198078464</v>
       </c>
     </row>
@@ -9884,43 +9884,43 @@
         <v>11</v>
       </c>
       <c r="C29" s="124">
-        <f>(O29/$N29*100)</f>
+        <f t="shared" si="5"/>
         <v>44.860258724272718</v>
       </c>
       <c r="D29" s="124">
-        <f>(P29/$N29*100)</f>
+        <f t="shared" si="6"/>
         <v>36.416569189247753</v>
       </c>
       <c r="E29" s="124">
-        <f>(Q29/$N29*100)</f>
+        <f t="shared" si="7"/>
         <v>30.189111383044935</v>
       </c>
       <c r="F29" s="124">
-        <f>R29/$O29*100</f>
+        <f t="shared" si="8"/>
         <v>13.881903455972042</v>
       </c>
       <c r="G29" s="125">
-        <f>S29/$O29*100</f>
+        <f t="shared" si="9"/>
         <v>18.822204274217238</v>
       </c>
       <c r="H29" s="126">
-        <f>T29/$P29*100</f>
+        <f t="shared" si="10"/>
         <v>4.8246740122036824</v>
       </c>
       <c r="I29" s="125">
-        <f>U29/$P29*100</f>
+        <f t="shared" si="11"/>
         <v>20.976677274634813</v>
       </c>
       <c r="J29" s="125">
-        <f>V29/$P29*100</f>
+        <f t="shared" si="12"/>
         <v>72.507438205358682</v>
       </c>
       <c r="K29" s="125">
-        <f>W29/$P29*100</f>
+        <f t="shared" si="13"/>
         <v>1.6912105078025332</v>
       </c>
       <c r="L29" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>64.205602163822476</v>
       </c>
       <c r="M29" s="127">
@@ -9930,11 +9930,11 @@
         <v>11677800.35599196</v>
       </c>
       <c r="O29" s="105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>5238691.4530020338</v>
       </c>
       <c r="P29" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>4252654.2464220319</v>
       </c>
       <c r="Q29" s="105">
@@ -9959,11 +9959,11 @@
         <v>71921.335476000037</v>
       </c>
       <c r="X29" s="122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>1979773.7393769682</v>
       </c>
       <c r="Y29" s="123">
-        <f>M29*V29/100</f>
+        <f t="shared" si="18"/>
         <v>1103716.9104350489</v>
       </c>
     </row>
@@ -9976,43 +9976,43 @@
         <v>11</v>
       </c>
       <c r="C30" s="124">
-        <f>(O30/$N30*100)</f>
+        <f t="shared" si="5"/>
         <v>45.089196728981598</v>
       </c>
       <c r="D30" s="124">
-        <f>(P30/$N30*100)</f>
+        <f t="shared" si="6"/>
         <v>38.63742404397756</v>
       </c>
       <c r="E30" s="124">
-        <f>(Q30/$N30*100)</f>
+        <f t="shared" si="7"/>
         <v>32.769217739595817</v>
       </c>
       <c r="F30" s="124">
-        <f>R30/$O30*100</f>
+        <f t="shared" si="8"/>
         <v>13.014661449069207</v>
       </c>
       <c r="G30" s="125">
-        <f>S30/$O30*100</f>
+        <f t="shared" si="9"/>
         <v>14.308910233606117</v>
       </c>
       <c r="H30" s="126">
-        <f>T30/$P30*100</f>
+        <f t="shared" si="10"/>
         <v>5.2622011594932427</v>
       </c>
       <c r="I30" s="125">
-        <f>U30/$P30*100</f>
+        <f t="shared" si="11"/>
         <v>20.301935854129951</v>
       </c>
       <c r="J30" s="125">
-        <f>V30/$P30*100</f>
+        <f t="shared" si="12"/>
         <v>73.225068505040781</v>
       </c>
       <c r="K30" s="125">
-        <f>W30/$P30*100</f>
+        <f t="shared" si="13"/>
         <v>1.2107944813367038</v>
       </c>
       <c r="L30" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>64.42486043404601</v>
       </c>
       <c r="M30" s="127">
@@ -10022,11 +10022,11 @@
         <v>11749251.843446214</v>
       </c>
       <c r="O30" s="105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>5297643.2778749606</v>
       </c>
       <c r="P30" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>4539608.2567471638</v>
       </c>
       <c r="Q30" s="105">
@@ -10051,11 +10051,11 @@
         <v>54965.326247000005</v>
       </c>
       <c r="X30" s="122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>2141566.9222346237</v>
       </c>
       <c r="Y30" s="123">
-        <f>M30*V30/100</f>
+        <f t="shared" si="18"/>
         <v>1182564.3336289742</v>
       </c>
     </row>
@@ -10068,43 +10068,43 @@
         <v>11</v>
       </c>
       <c r="C31" s="124">
-        <f>(O31/$N31*100)</f>
+        <f t="shared" si="5"/>
         <v>45.38537615162204</v>
       </c>
       <c r="D31" s="124">
-        <f>(P31/$N31*100)</f>
+        <f t="shared" si="6"/>
         <v>39.362237761286991</v>
       </c>
       <c r="E31" s="124">
-        <f>(Q31/$N31*100)</f>
+        <f t="shared" si="7"/>
         <v>33.027614510450427</v>
       </c>
       <c r="F31" s="124">
-        <f>R31/$O31*100</f>
+        <f t="shared" si="8"/>
         <v>13.957410487629426</v>
       </c>
       <c r="G31" s="125">
-        <f>S31/$O31*100</f>
+        <f t="shared" si="9"/>
         <v>13.271099418044132</v>
       </c>
       <c r="H31" s="126">
-        <f>T31/$P31*100</f>
+        <f t="shared" si="10"/>
         <v>4.9544669338769554</v>
       </c>
       <c r="I31" s="125">
-        <f>U31/$P31*100</f>
+        <f t="shared" si="11"/>
         <v>20.163660642396355</v>
       </c>
       <c r="J31" s="125">
-        <f>V31/$P31*100</f>
+        <f t="shared" si="12"/>
         <v>73.597119772852906</v>
       </c>
       <c r="K31" s="125">
-        <f>W31/$P31*100</f>
+        <f t="shared" si="13"/>
         <v>1.2847526508740825</v>
       </c>
       <c r="L31" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>63.387507889242585</v>
       </c>
       <c r="M31" s="127">
@@ -10114,11 +10114,11 @@
         <v>11390389.920870408</v>
       </c>
       <c r="O31" s="105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>5169571.3107234789</v>
       </c>
       <c r="P31" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>4483512.362590679</v>
       </c>
       <c r="Q31" s="105">
@@ -10143,11 +10143,11 @@
         <v>57602.043930650958</v>
       </c>
       <c r="X31" s="122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>2091620.3942045532</v>
       </c>
       <c r="Y31" s="123">
-        <f>M31*V31/100</f>
+        <f t="shared" si="18"/>
         <v>1208115.5693219756</v>
       </c>
     </row>
@@ -10160,43 +10160,43 @@
         <v>11</v>
       </c>
       <c r="C32" s="124">
-        <f>(O32/$N32*100)</f>
+        <f t="shared" si="5"/>
         <v>45.985807881459607</v>
       </c>
       <c r="D32" s="124">
-        <f>(P32/$N32*100)</f>
+        <f t="shared" si="6"/>
         <v>39.341970140551595</v>
       </c>
       <c r="E32" s="124">
-        <f>(Q32/$N32*100)</f>
+        <f t="shared" si="7"/>
         <v>32.353395334785652</v>
       </c>
       <c r="F32" s="124">
-        <f>R32/$O32*100</f>
+        <f t="shared" si="8"/>
         <v>15.197242644471554</v>
       </c>
       <c r="G32" s="125">
-        <f>S32/$O32*100</f>
+        <f t="shared" si="9"/>
         <v>14.447582954363284</v>
       </c>
       <c r="H32" s="126">
-        <f>T32/$P32*100</f>
+        <f t="shared" si="10"/>
         <v>4.6717366492050454</v>
       </c>
       <c r="I32" s="125">
-        <f>U32/$P32*100</f>
+        <f t="shared" si="11"/>
         <v>20.498880641181781</v>
       </c>
       <c r="J32" s="125">
-        <f>V32/$P32*100</f>
+        <f t="shared" si="12"/>
         <v>73.523756088743838</v>
       </c>
       <c r="K32" s="125">
-        <f>W32/$P32*100</f>
+        <f t="shared" si="13"/>
         <v>1.3056266208696024</v>
       </c>
       <c r="L32" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>62.620466701758595</v>
       </c>
       <c r="M32" s="127">
@@ -10206,11 +10206,11 @@
         <v>11454928.527361766</v>
       </c>
       <c r="O32" s="105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>5267641.4255510913</v>
       </c>
       <c r="P32" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>4506594.5608561924</v>
       </c>
       <c r="Q32" s="105">
@@ -10235,11 +10235,11 @@
         <v>58839.298281199997</v>
       </c>
       <c r="X32" s="122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>2074877.5604098891</v>
       </c>
       <c r="Y32" s="123">
-        <f>M32*V32/100</f>
+        <f t="shared" si="18"/>
         <v>1238540.0324226143</v>
       </c>
     </row>
@@ -10252,43 +10252,43 @@
         <v>11</v>
       </c>
       <c r="C33" s="124">
-        <f>(O33/$N33*100)</f>
+        <f t="shared" si="5"/>
         <v>45.048053717921569</v>
       </c>
       <c r="D33" s="124">
-        <f>(P33/$N33*100)</f>
+        <f t="shared" si="6"/>
         <v>38.084067044500046</v>
       </c>
       <c r="E33" s="124">
-        <f>(Q33/$N33*100)</f>
+        <f t="shared" si="7"/>
         <v>31.616681874921426</v>
       </c>
       <c r="F33" s="124">
-        <f>R33/$O33*100</f>
+        <f t="shared" si="8"/>
         <v>14.356636160300276</v>
       </c>
       <c r="G33" s="125">
-        <f>S33/$O33*100</f>
+        <f t="shared" si="9"/>
         <v>15.45901786795957</v>
       </c>
       <c r="H33" s="126">
-        <f>T33/$P33*100</f>
+        <f t="shared" si="10"/>
         <v>4.7961250366451473</v>
       </c>
       <c r="I33" s="125">
-        <f>U33/$P33*100</f>
+        <f t="shared" si="11"/>
         <v>20.779380370479437</v>
       </c>
       <c r="J33" s="125">
-        <f>V33/$P33*100</f>
+        <f t="shared" si="12"/>
         <v>73.34097365127225</v>
       </c>
       <c r="K33" s="125">
-        <f>W33/$P33*100</f>
+        <f t="shared" si="13"/>
         <v>1.0835191494999075</v>
       </c>
       <c r="L33" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>63.109687135135992</v>
       </c>
       <c r="M33" s="127">
@@ -10298,11 +10298,11 @@
         <v>11525539</v>
       </c>
       <c r="O33" s="105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>5192031</v>
       </c>
       <c r="P33" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>4389394</v>
       </c>
       <c r="Q33" s="105">
@@ -10327,11 +10327,11 @@
         <v>47559.92453699997</v>
       </c>
       <c r="X33" s="122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>2031642.3820090014</v>
       </c>
       <c r="Y33" s="123">
-        <f>M33*V33/100</f>
+        <f t="shared" si="18"/>
         <v>1187581.9149815235</v>
       </c>
     </row>
@@ -10344,43 +10344,43 @@
         <v>11</v>
       </c>
       <c r="C34" s="124">
-        <f>(O34/$N34*100)</f>
+        <f t="shared" si="5"/>
         <v>44.276924128500717</v>
       </c>
       <c r="D34" s="124">
-        <f>(P34/$N34*100)</f>
+        <f t="shared" si="6"/>
         <v>35.341502958577834</v>
       </c>
       <c r="E34" s="124">
-        <f>(Q34/$N34*100)</f>
+        <f t="shared" si="7"/>
         <v>28.285690515203864</v>
       </c>
       <c r="F34" s="124">
-        <f>R34/$O34*100</f>
+        <f t="shared" si="8"/>
         <v>15.935642735472221</v>
       </c>
       <c r="G34" s="125">
-        <f>S34/$O34*100</f>
+        <f t="shared" si="9"/>
         <v>20.180763108093171</v>
       </c>
       <c r="H34" s="126">
-        <f>T34/$P34*100</f>
+        <f t="shared" si="10"/>
         <v>4.7791345278979431</v>
       </c>
       <c r="I34" s="125">
-        <f>U34/$P34*100</f>
+        <f t="shared" si="11"/>
         <v>22.457169845436564</v>
       </c>
       <c r="J34" s="125">
-        <f>V34/$P34*100</f>
+        <f t="shared" si="12"/>
         <v>72.09681594687936</v>
       </c>
       <c r="K34" s="125">
-        <f>W34/$P34*100</f>
+        <f t="shared" si="13"/>
         <v>0.66688093018951089</v>
       </c>
       <c r="L34" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>62.190420100680839</v>
       </c>
       <c r="M34" s="127">
@@ -10390,11 +10390,11 @@
         <v>11586986</v>
       </c>
       <c r="O34" s="105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>5130361</v>
       </c>
       <c r="P34" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>4095015</v>
       </c>
       <c r="Q34" s="105">
@@ -10419,11 +10419,11 @@
         <v>27308.874123400001</v>
       </c>
       <c r="X34" s="122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>1836094.6813408148</v>
       </c>
       <c r="Y34" s="123">
-        <f>M34*V34/100</f>
+        <f t="shared" si="18"/>
         <v>1116280.7462062871</v>
       </c>
     </row>
@@ -10436,43 +10436,43 @@
         <v>11</v>
       </c>
       <c r="C35" s="124">
-        <f>(O35/$N35*100)</f>
+        <f t="shared" si="5"/>
         <v>45.607402193925537</v>
       </c>
       <c r="D35" s="124">
-        <f>(P35/$N35*100)</f>
+        <f t="shared" si="6"/>
         <v>34.750366853445833</v>
       </c>
       <c r="E35" s="124">
-        <f>(Q35/$N35*100)</f>
+        <f t="shared" si="7"/>
         <v>27.009889928100929</v>
       </c>
       <c r="F35" s="124">
-        <f>R35/$O35*100</f>
+        <f t="shared" si="8"/>
         <v>16.971975058855385</v>
       </c>
       <c r="G35" s="125">
-        <f>S35/$O35*100</f>
+        <f t="shared" si="9"/>
         <v>23.805423721164622</v>
       </c>
       <c r="H35" s="126">
-        <f>T35/$P35*100</f>
+        <f t="shared" si="10"/>
         <v>4.4174411482535465</v>
       </c>
       <c r="I35" s="125">
-        <f>U35/$P35*100</f>
+        <f t="shared" si="11"/>
         <v>24.270515571743861</v>
       </c>
       <c r="J35" s="125">
-        <f>V35/$P35*100</f>
+        <f t="shared" si="12"/>
         <v>70.440291061903963</v>
       </c>
       <c r="K35" s="125">
-        <f>W35/$P35*100</f>
+        <f t="shared" si="13"/>
         <v>0.87176415751116876</v>
       </c>
       <c r="L35" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>62.656804817627766</v>
       </c>
       <c r="M35" s="127">
@@ -10482,11 +10482,11 @@
         <v>11660651</v>
       </c>
       <c r="O35" s="105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>5318120</v>
       </c>
       <c r="P35" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>4052119</v>
       </c>
       <c r="Q35" s="105">
@@ -10511,11 +10511,11 @@
         <v>35324.921061699999</v>
       </c>
       <c r="X35" s="122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>1788428.4793069917</v>
       </c>
       <c r="Y35" s="123">
-        <f>M35*V35/100</f>
+        <f t="shared" si="18"/>
         <v>1065895.9384677205</v>
       </c>
     </row>
@@ -11151,47 +11151,47 @@
         <v>1</v>
       </c>
       <c r="C8" s="110">
-        <f>(O8/$N8*100)</f>
+        <f t="shared" ref="C8:C17" si="0">(O8/$N8*100)</f>
         <v>48.18422236905073</v>
       </c>
       <c r="D8" s="110">
-        <f>(P8/$N8*100)</f>
+        <f t="shared" ref="D8:D17" si="1">(P8/$N8*100)</f>
         <v>39.085831565305419</v>
       </c>
       <c r="E8" s="110">
-        <f>(Q8/$N8*100)</f>
+        <f t="shared" ref="E8:E17" si="2">(Q8/$N8*100)</f>
         <v>31.938213479969825</v>
       </c>
       <c r="F8" s="110">
-        <f>R8/$O8*100</f>
+        <f t="shared" ref="F8:F17" si="3">R8/$O8*100</f>
         <v>14.833938857808757</v>
       </c>
       <c r="G8" s="111">
-        <f>S8/$O8*100</f>
+        <f t="shared" ref="G8:G17" si="4">S8/$O8*100</f>
         <v>18.882510407783009</v>
       </c>
       <c r="H8" s="112">
-        <f>T8/$P8*100</f>
+        <f t="shared" ref="H8:H17" si="5">T8/$P8*100</f>
         <v>3.5856531802183178</v>
       </c>
       <c r="I8" s="113">
-        <f>U8/$P8*100</f>
+        <f t="shared" ref="I8:I17" si="6">U8/$P8*100</f>
         <v>20.728807292073753</v>
       </c>
       <c r="J8" s="113">
-        <f>V8/$P8*100</f>
+        <f t="shared" ref="J8:J17" si="7">V8/$P8*100</f>
         <v>73.795517459199246</v>
       </c>
       <c r="K8" s="113">
-        <f>W8/$P8*100</f>
+        <f t="shared" ref="K8:K17" si="8">W8/$P8*100</f>
         <v>1.8900220685086857</v>
       </c>
       <c r="L8" s="112">
-        <f>X8/$V8*100</f>
+        <f t="shared" ref="L8:L17" si="9">X8/$V8*100</f>
         <v>56.686847357628032</v>
       </c>
       <c r="M8" s="114">
-        <f>Y8/$V8*100</f>
+        <f t="shared" ref="M8:M17" si="10">Y8/$V8*100</f>
         <v>41.604342574681318</v>
       </c>
       <c r="N8" s="104">
@@ -11235,65 +11235,65 @@
     </row>
     <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="93">
-        <f t="shared" ref="A9:A17" si="0">A8+1</f>
+        <f t="shared" ref="A9:A17" si="11">A8+1</f>
         <v>2005</v>
       </c>
       <c r="B9" s="94">
         <v>1</v>
       </c>
       <c r="C9" s="110">
-        <f>(O9/$N9*100)</f>
+        <f t="shared" si="0"/>
         <v>48.652833203261139</v>
       </c>
       <c r="D9" s="110">
-        <f>(P9/$N9*100)</f>
+        <f t="shared" si="1"/>
         <v>40.262707642387383</v>
       </c>
       <c r="E9" s="110">
-        <f>(Q9/$N9*100)</f>
+        <f t="shared" si="2"/>
         <v>34.492686774474201</v>
       </c>
       <c r="F9" s="110">
-        <f>R9/$O9*100</f>
+        <f t="shared" si="3"/>
         <v>11.859578339060485</v>
       </c>
       <c r="G9" s="111">
-        <f>S9/$O9*100</f>
+        <f t="shared" si="4"/>
         <v>17.244885875035472</v>
       </c>
       <c r="H9" s="112">
-        <f>T9/$P9*100</f>
+        <f t="shared" si="5"/>
         <v>3.0219311077806772</v>
       </c>
       <c r="I9" s="113">
-        <f>U9/$P9*100</f>
+        <f t="shared" si="6"/>
         <v>21.541665920304435</v>
       </c>
       <c r="J9" s="113">
-        <f>V9/$P9*100</f>
+        <f t="shared" si="7"/>
         <v>74.566303835107689</v>
       </c>
       <c r="K9" s="113">
-        <f>W9/$P9*100</f>
+        <f t="shared" si="8"/>
         <v>0.87009913680720175</v>
       </c>
       <c r="L9" s="112">
-        <f>X9/$V9*100</f>
+        <f t="shared" si="9"/>
         <v>55.975878202700294</v>
       </c>
       <c r="M9" s="114">
-        <f>Y9/$V9*100</f>
+        <f t="shared" si="10"/>
         <v>42.517003261989167</v>
       </c>
       <c r="N9" s="104">
         <v>12478967</v>
       </c>
       <c r="O9" s="105">
-        <f t="shared" ref="O9:O17" si="1">P9+S9</f>
+        <f t="shared" ref="O9:O17" si="12">P9+S9</f>
         <v>6071371</v>
       </c>
       <c r="P9" s="105">
-        <f t="shared" ref="P9:P17" si="2">Q9+R9</f>
+        <f t="shared" ref="P9:P17" si="13">Q9+R9</f>
         <v>5024370</v>
       </c>
       <c r="Q9" s="105">
@@ -11326,65 +11326,65 @@
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="93">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>2006</v>
       </c>
       <c r="B10" s="94">
         <v>1</v>
       </c>
       <c r="C10" s="110">
-        <f>(O10/$N10*100)</f>
+        <f t="shared" si="0"/>
         <v>49.198252116174096</v>
       </c>
       <c r="D10" s="110">
-        <f>(P10/$N10*100)</f>
+        <f t="shared" si="1"/>
         <v>41.967508166339869</v>
       </c>
       <c r="E10" s="110">
-        <f>(Q10/$N10*100)</f>
+        <f t="shared" si="2"/>
         <v>36.458690549569219</v>
       </c>
       <c r="F10" s="110">
-        <f>R10/$O10*100</f>
+        <f t="shared" si="3"/>
         <v>11.197181566049187</v>
       </c>
       <c r="G10" s="111">
-        <f>S10/$O10*100</f>
+        <f t="shared" si="4"/>
         <v>14.69715617693072</v>
       </c>
       <c r="H10" s="112">
-        <f>T10/$P10*100</f>
+        <f t="shared" si="5"/>
         <v>3.6392171536071007</v>
       </c>
       <c r="I10" s="113">
-        <f>U10/$P10*100</f>
+        <f t="shared" si="6"/>
         <v>19.686963489152383</v>
       </c>
       <c r="J10" s="113">
-        <f>V10/$P10*100</f>
+        <f t="shared" si="7"/>
         <v>76.060672201734221</v>
       </c>
       <c r="K10" s="113">
-        <f>W10/$P10*100</f>
+        <f t="shared" si="8"/>
         <v>0.61314715550629617</v>
       </c>
       <c r="L10" s="112">
-        <f>X10/$V10*100</f>
+        <f t="shared" si="9"/>
         <v>57.962555224782442</v>
       </c>
       <c r="M10" s="114">
-        <f>Y10/$V10*100</f>
+        <f t="shared" si="10"/>
         <v>40.415273469197103</v>
       </c>
       <c r="N10" s="104">
         <v>12609076</v>
       </c>
       <c r="O10" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>6203445</v>
       </c>
       <c r="P10" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>5291715</v>
       </c>
       <c r="Q10" s="105">
@@ -11417,65 +11417,65 @@
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>2007</v>
       </c>
       <c r="B11" s="94">
         <v>1</v>
       </c>
       <c r="C11" s="110">
-        <f>(O11/$N11*100)</f>
+        <f t="shared" si="0"/>
         <v>49.207519133420497</v>
       </c>
       <c r="D11" s="110">
-        <f>(P11/$N11*100)</f>
+        <f t="shared" si="1"/>
         <v>43.22896501865646</v>
       </c>
       <c r="E11" s="110">
-        <f>(Q11/$N11*100)</f>
+        <f t="shared" si="2"/>
         <v>38.510038096230275</v>
       </c>
       <c r="F11" s="110">
-        <f>R11/$O11*100</f>
+        <f t="shared" si="3"/>
         <v>9.5898492863079703</v>
       </c>
       <c r="G11" s="111">
-        <f>S11/$O11*100</f>
+        <f t="shared" si="4"/>
         <v>12.149675943942386</v>
       </c>
       <c r="H11" s="112">
-        <f>T11/$P11*100</f>
+        <f t="shared" si="5"/>
         <v>4.5296719847441382</v>
       </c>
       <c r="I11" s="113">
-        <f>U11/$P11*100</f>
+        <f t="shared" si="6"/>
         <v>18.192006787188852</v>
       </c>
       <c r="J11" s="113">
-        <f>V11/$P11*100</f>
+        <f t="shared" si="7"/>
         <v>76.218096411550988</v>
       </c>
       <c r="K11" s="113">
-        <f>W11/$P11*100</f>
+        <f t="shared" si="8"/>
         <v>1.0602248165160275</v>
       </c>
       <c r="L11" s="112">
-        <f>X11/$V11*100</f>
+        <f t="shared" si="9"/>
         <v>59.247742548388658</v>
       </c>
       <c r="M11" s="114">
-        <f>Y11/$V11*100</f>
+        <f t="shared" si="10"/>
         <v>38.745484977189896</v>
       </c>
       <c r="N11" s="104">
         <v>12689707</v>
       </c>
       <c r="O11" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>6244290</v>
       </c>
       <c r="P11" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>5485629</v>
       </c>
       <c r="Q11" s="105">
@@ -11508,65 +11508,65 @@
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>2008</v>
       </c>
       <c r="B12" s="94">
         <v>1</v>
       </c>
       <c r="C12" s="110">
-        <f>(O12/$N12*100)</f>
+        <f t="shared" si="0"/>
         <v>47.80462032614647</v>
       </c>
       <c r="D12" s="110">
-        <f>(P12/$N12*100)</f>
+        <f t="shared" si="1"/>
         <v>43.381084718964694</v>
       </c>
       <c r="E12" s="110">
-        <f>(Q12/$N12*100)</f>
+        <f t="shared" si="2"/>
         <v>39.090508081303582</v>
       </c>
       <c r="F12" s="110">
-        <f>R12/$O12*100</f>
+        <f t="shared" si="3"/>
         <v>8.9752342103936851</v>
       </c>
       <c r="G12" s="111">
-        <f>S12/$O12*100</f>
+        <f t="shared" si="4"/>
         <v>9.2533641664806687</v>
       </c>
       <c r="H12" s="112">
-        <f>T12/$P12*100</f>
+        <f t="shared" si="5"/>
         <v>4.6004793277942495</v>
       </c>
       <c r="I12" s="113">
-        <f>U12/$P12*100</f>
+        <f t="shared" si="6"/>
         <v>17.332689228720792</v>
       </c>
       <c r="J12" s="113">
-        <f>V12/$P12*100</f>
+        <f t="shared" si="7"/>
         <v>77.519144170339331</v>
       </c>
       <c r="K12" s="113">
-        <f>W12/$P12*100</f>
+        <f t="shared" si="8"/>
         <v>0.54768727314561616</v>
       </c>
       <c r="L12" s="112">
-        <f>X12/$V12*100</f>
+        <f t="shared" si="9"/>
         <v>63.460981082427722</v>
       </c>
       <c r="M12" s="114">
-        <f>Y12/$V12*100</f>
+        <f t="shared" si="10"/>
         <v>34.710835117095598</v>
       </c>
       <c r="N12" s="104">
         <v>12783643</v>
       </c>
       <c r="O12" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>6111172</v>
       </c>
       <c r="P12" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>5545683</v>
       </c>
       <c r="Q12" s="105">
@@ -11599,65 +11599,65 @@
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="93">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>2009</v>
       </c>
       <c r="B13" s="94">
         <v>1</v>
       </c>
       <c r="C13" s="110">
-        <f>(O13/$N13*100)</f>
+        <f t="shared" si="0"/>
         <v>49.084941720113761</v>
       </c>
       <c r="D13" s="110">
-        <f>(P13/$N13*100)</f>
+        <f t="shared" si="1"/>
         <v>44.820023435823138</v>
       </c>
       <c r="E13" s="110">
-        <f>(Q13/$N13*100)</f>
+        <f t="shared" si="2"/>
         <v>40.009439751741816</v>
       </c>
       <c r="F13" s="110">
-        <f>R13/$O13*100</f>
+        <f t="shared" si="3"/>
         <v>9.8005284625000719</v>
       </c>
       <c r="G13" s="111">
-        <f>S13/$O13*100</f>
+        <f t="shared" si="4"/>
         <v>8.6888527007112071</v>
       </c>
       <c r="H13" s="112">
-        <f>T13/$P13*100</f>
+        <f t="shared" si="5"/>
         <v>4.8266856908143634</v>
       </c>
       <c r="I13" s="113">
-        <f>U13/$P13*100</f>
+        <f t="shared" si="6"/>
         <v>17.73737164104892</v>
       </c>
       <c r="J13" s="113">
-        <f>V13/$P13*100</f>
+        <f t="shared" si="7"/>
         <v>76.701454914931801</v>
       </c>
       <c r="K13" s="113">
-        <f>W13/$P13*100</f>
+        <f t="shared" si="8"/>
         <v>0.73448775320492032</v>
       </c>
       <c r="L13" s="112">
-        <f>X13/$V13*100</f>
+        <f t="shared" si="9"/>
         <v>64.596252424478692</v>
       </c>
       <c r="M13" s="114">
-        <f>Y13/$V13*100</f>
+        <f t="shared" si="10"/>
         <v>33.235053914634001</v>
       </c>
       <c r="N13" s="104">
         <v>12900763</v>
       </c>
       <c r="O13" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>6332332</v>
       </c>
       <c r="P13" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>5782125</v>
       </c>
       <c r="Q13" s="105">
@@ -11690,65 +11690,65 @@
     </row>
     <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="93">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>2010</v>
       </c>
       <c r="B14" s="94">
         <v>1</v>
       </c>
       <c r="C14" s="110">
-        <f>(O14/$N14*100)</f>
+        <f t="shared" si="0"/>
         <v>48.337825813809999</v>
       </c>
       <c r="D14" s="110">
-        <f>(P14/$N14*100)</f>
+        <f t="shared" si="1"/>
         <v>44.261023820928685</v>
       </c>
       <c r="E14" s="110">
-        <f>(Q14/$N14*100)</f>
+        <f t="shared" si="2"/>
         <v>39.548346287436239</v>
       </c>
       <c r="F14" s="110">
-        <f>R14/$O14*100</f>
+        <f t="shared" si="3"/>
         <v>9.7494611190105438</v>
       </c>
       <c r="G14" s="111">
-        <f>S14/$O14*100</f>
+        <f t="shared" si="4"/>
         <v>8.4339788235088164</v>
       </c>
       <c r="H14" s="112">
-        <f>T14/$P14*100</f>
+        <f t="shared" si="5"/>
         <v>4.4548231487783188</v>
       </c>
       <c r="I14" s="113">
-        <f>U14/$P14*100</f>
+        <f t="shared" si="6"/>
         <v>17.959476359935458</v>
       </c>
       <c r="J14" s="113">
-        <f>V14/$P14*100</f>
+        <f t="shared" si="7"/>
         <v>76.890603829488157</v>
       </c>
       <c r="K14" s="113">
-        <f>W14/$P14*100</f>
+        <f t="shared" si="8"/>
         <v>0.6950966617980644</v>
       </c>
       <c r="L14" s="112">
-        <f>X14/$V14*100</f>
+        <f t="shared" si="9"/>
         <v>66.896584459528185</v>
       </c>
       <c r="M14" s="114">
-        <f>Y14/$V14*100</f>
+        <f t="shared" si="10"/>
         <v>32.294476503043498</v>
       </c>
       <c r="N14" s="104">
         <v>12999871</v>
       </c>
       <c r="O14" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>6283855</v>
       </c>
       <c r="P14" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>5753876</v>
       </c>
       <c r="Q14" s="105">
@@ -11781,65 +11781,65 @@
     </row>
     <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="93">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>2011</v>
       </c>
       <c r="B15" s="94">
         <v>1</v>
       </c>
       <c r="C15" s="110">
-        <f>(O15/$N15*100)</f>
+        <f t="shared" si="0"/>
         <v>47.724364397332678</v>
       </c>
       <c r="D15" s="110">
-        <f>(P15/$N15*100)</f>
+        <f t="shared" si="1"/>
         <v>43.95358968986902</v>
       </c>
       <c r="E15" s="110">
-        <f>(Q15/$N15*100)</f>
+        <f t="shared" si="2"/>
         <v>39.60924858916151</v>
       </c>
       <c r="F15" s="110">
-        <f>R15/$O15*100</f>
+        <f t="shared" si="3"/>
         <v>9.1029836763008145</v>
       </c>
       <c r="G15" s="111">
-        <f>S15/$O15*100</f>
+        <f t="shared" si="4"/>
         <v>7.9011522837052262</v>
       </c>
       <c r="H15" s="112">
-        <f>T15/$P15*100</f>
+        <f t="shared" si="5"/>
         <v>4.2376689754631096</v>
       </c>
       <c r="I15" s="113">
-        <f>U15/$P15*100</f>
+        <f t="shared" si="6"/>
         <v>16.779865613489999</v>
       </c>
       <c r="J15" s="113">
-        <f>V15/$P15*100</f>
+        <f t="shared" si="7"/>
         <v>78.017065047399726</v>
       </c>
       <c r="K15" s="113">
-        <f>W15/$P15*100</f>
+        <f t="shared" si="8"/>
         <v>0.9654003636471653</v>
       </c>
       <c r="L15" s="112">
-        <f>X15/$V15*100</f>
+        <f t="shared" si="9"/>
         <v>65.944052269419785</v>
       </c>
       <c r="M15" s="114">
-        <f>Y15/$V15*100</f>
+        <f t="shared" si="10"/>
         <v>33.188004431785593</v>
       </c>
       <c r="N15" s="104">
         <v>13097176</v>
       </c>
       <c r="O15" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>6250544</v>
       </c>
       <c r="P15" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>5756679</v>
       </c>
       <c r="Q15" s="105">
@@ -11872,65 +11872,65 @@
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="93">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>2012</v>
       </c>
       <c r="B16" s="94">
         <v>1</v>
       </c>
       <c r="C16" s="110">
-        <f>(O16/$N16*100)</f>
+        <f t="shared" si="0"/>
         <v>47.20063985201412</v>
       </c>
       <c r="D16" s="110">
-        <f>(P16/$N16*100)</f>
+        <f t="shared" si="1"/>
         <v>43.641679230708888</v>
       </c>
       <c r="E16" s="110">
-        <f>(Q16/$N16*100)</f>
+        <f t="shared" si="2"/>
         <v>39.579995081095923</v>
       </c>
       <c r="F16" s="110">
-        <f>R16/$O16*100</f>
+        <f t="shared" si="3"/>
         <v>8.6051463758698521</v>
       </c>
       <c r="G16" s="111">
-        <f>S16/$O16*100</f>
+        <f t="shared" si="4"/>
         <v>7.540068593272176</v>
       </c>
       <c r="H16" s="112">
-        <f>T16/$P16*100</f>
+        <f t="shared" si="5"/>
         <v>2.5565824253340743</v>
       </c>
       <c r="I16" s="113">
-        <f>U16/$P16*100</f>
+        <f t="shared" si="6"/>
         <v>18.756638120358964</v>
       </c>
       <c r="J16" s="113">
-        <f>V16/$P16*100</f>
+        <f t="shared" si="7"/>
         <v>78.399804059200818</v>
       </c>
       <c r="K16" s="113">
-        <f>W16/$P16*100</f>
+        <f t="shared" si="8"/>
         <v>0.24718578462713015</v>
       </c>
       <c r="L16" s="112">
-        <f>X16/$V16*100</f>
+        <f t="shared" si="9"/>
         <v>67.604388411829234</v>
       </c>
       <c r="M16" s="114">
-        <f>Y16/$V16*100</f>
+        <f t="shared" si="10"/>
         <v>31.731709204414667</v>
       </c>
       <c r="N16" s="104">
         <v>13181798</v>
       </c>
       <c r="O16" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>6221893</v>
       </c>
       <c r="P16" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>5752758</v>
       </c>
       <c r="Q16" s="105">
@@ -11963,65 +11963,65 @@
     </row>
     <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="93">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>2013</v>
       </c>
       <c r="B17" s="94">
         <v>1</v>
       </c>
       <c r="C17" s="110">
-        <f>(O17/$N17*100)</f>
+        <f t="shared" si="0"/>
         <v>47.618531501270056</v>
       </c>
       <c r="D17" s="110">
-        <f>(P17/$N17*100)</f>
+        <f t="shared" si="1"/>
         <v>43.393107513741533</v>
       </c>
       <c r="E17" s="110">
-        <f>(Q17/$N17*100)</f>
+        <f t="shared" si="2"/>
         <v>39.109607373292974</v>
       </c>
       <c r="F17" s="110">
-        <f>R17/$O17*100</f>
+        <f t="shared" si="3"/>
         <v>8.9954477918629276</v>
       </c>
       <c r="G17" s="111">
-        <f>S17/$O17*100</f>
+        <f t="shared" si="4"/>
         <v>8.8734865488572048</v>
       </c>
       <c r="H17" s="112">
-        <f>T17/$P17*100</f>
+        <f t="shared" si="5"/>
         <v>3.1581330081644903</v>
       </c>
       <c r="I17" s="113">
-        <f>U17/$P17*100</f>
+        <f t="shared" si="6"/>
         <v>18.38956430034639</v>
       </c>
       <c r="J17" s="113">
-        <f>V17/$P17*100</f>
+        <f t="shared" si="7"/>
         <v>77.804867472303698</v>
       </c>
       <c r="K17" s="113">
-        <f>W17/$P17*100</f>
+        <f t="shared" si="8"/>
         <v>0.64743521918542424</v>
       </c>
       <c r="L17" s="112">
-        <f>X17/$V17*100</f>
+        <f t="shared" si="9"/>
         <v>69.546131254271998</v>
       </c>
       <c r="M17" s="114">
-        <f>Y17/$V17*100</f>
+        <f t="shared" si="10"/>
         <v>29.765713233461462</v>
       </c>
       <c r="N17" s="104">
         <v>13286004</v>
       </c>
       <c r="O17" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>6326600</v>
       </c>
       <c r="P17" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>5765210</v>
       </c>
       <c r="Q17" s="105">
@@ -12705,58 +12705,58 @@
         <v>2</v>
       </c>
       <c r="C8" s="110">
-        <f>(O8/$N8*100)</f>
+        <f t="shared" ref="C8:C17" si="0">(O8/$N8*100)</f>
         <v>49.268005552603114</v>
       </c>
       <c r="D8" s="110">
-        <f>(P8/$N8*100)</f>
+        <f t="shared" ref="D8:D17" si="1">(P8/$N8*100)</f>
         <v>39.781178408501276</v>
       </c>
       <c r="E8" s="110">
-        <f>(Q8/$N8*100)</f>
+        <f t="shared" ref="E8:E17" si="2">(Q8/$N8*100)</f>
         <v>32.940994370809804</v>
       </c>
       <c r="F8" s="110">
-        <f>R8/$O8*100</f>
+        <f t="shared" ref="F8:F17" si="3">R8/$O8*100</f>
         <v>13.883622770944628</v>
       </c>
       <c r="G8" s="111">
-        <f>S8/$O8*100</f>
+        <f t="shared" ref="G8:G17" si="4">S8/$O8*100</f>
         <v>19.255553452377566</v>
       </c>
       <c r="H8" s="112">
-        <f>T8/$P8*100</f>
+        <f t="shared" ref="H8:H17" si="5">T8/$P8*100</f>
         <v>4.1671154096868568</v>
       </c>
       <c r="I8" s="113">
-        <f>U8/$P8*100</f>
+        <f t="shared" ref="I8:I17" si="6">U8/$P8*100</f>
         <v>20.130983026582054</v>
       </c>
       <c r="J8" s="113">
-        <f>V8/$P8*100</f>
+        <f t="shared" ref="J8:J17" si="7">V8/$P8*100</f>
         <v>74.421991997933489</v>
       </c>
       <c r="K8" s="113">
-        <f>W8/$P8*100</f>
+        <f t="shared" ref="K8:K17" si="8">W8/$P8*100</f>
         <v>1.2799095657976034</v>
       </c>
       <c r="L8" s="112">
-        <f>X8/$V8*100</f>
+        <f t="shared" ref="L8:L17" si="9">X8/$V8*100</f>
         <v>55.331111317239532</v>
       </c>
       <c r="M8" s="114">
-        <f>Y8/$V8*100</f>
+        <f t="shared" ref="M8:M17" si="10">Y8/$V8*100</f>
         <v>43.316610635700982</v>
       </c>
       <c r="N8" s="104">
         <v>12417239</v>
       </c>
       <c r="O8" s="105">
-        <f t="shared" ref="O8:O17" si="0">P8+S8</f>
+        <f t="shared" ref="O8:O17" si="11">P8+S8</f>
         <v>6117726</v>
       </c>
       <c r="P8" s="105">
-        <f t="shared" ref="P8:P17" si="1">Q8+R8</f>
+        <f t="shared" ref="P8:P17" si="12">Q8+R8</f>
         <v>4939724</v>
       </c>
       <c r="Q8" s="105">
@@ -12789,65 +12789,65 @@
     </row>
     <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="93">
-        <f t="shared" ref="A9:A17" si="2">A8+1</f>
+        <f t="shared" ref="A9:A17" si="13">A8+1</f>
         <v>2005</v>
       </c>
       <c r="B9" s="94">
         <v>2</v>
       </c>
       <c r="C9" s="110">
-        <f>(O9/$N9*100)</f>
+        <f t="shared" si="0"/>
         <v>48.355111278413318</v>
       </c>
       <c r="D9" s="110">
-        <f>(P9/$N9*100)</f>
+        <f t="shared" si="1"/>
         <v>40.350329004894547</v>
       </c>
       <c r="E9" s="110">
-        <f>(Q9/$N9*100)</f>
+        <f t="shared" si="2"/>
         <v>34.308723991876008</v>
       </c>
       <c r="F9" s="110">
-        <f>R9/$O9*100</f>
+        <f t="shared" si="3"/>
         <v>12.494242807617379</v>
       </c>
       <c r="G9" s="111">
-        <f>S9/$O9*100</f>
+        <f t="shared" si="4"/>
         <v>16.554159553950321</v>
       </c>
       <c r="H9" s="112">
-        <f>T9/$P9*100</f>
+        <f t="shared" si="5"/>
         <v>3.8336746792077712</v>
       </c>
       <c r="I9" s="113">
-        <f>U9/$P9*100</f>
+        <f t="shared" si="6"/>
         <v>20.986863939448693</v>
       </c>
       <c r="J9" s="113">
-        <f>V9/$P9*100</f>
+        <f t="shared" si="7"/>
         <v>74.409310677915087</v>
       </c>
       <c r="K9" s="113">
-        <f>W9/$P9*100</f>
+        <f t="shared" si="8"/>
         <v>0.77015070342845293</v>
       </c>
       <c r="L9" s="112">
-        <f>X9/$V9*100</f>
+        <f t="shared" si="9"/>
         <v>55.63244528488562</v>
       </c>
       <c r="M9" s="114">
-        <f>Y9/$V9*100</f>
+        <f t="shared" si="10"/>
         <v>43.290566579696964</v>
       </c>
       <c r="N9" s="104">
         <v>12522914</v>
       </c>
       <c r="O9" s="105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6055469</v>
       </c>
       <c r="P9" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>5053037</v>
       </c>
       <c r="Q9" s="105">
@@ -12880,65 +12880,65 @@
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>2006</v>
       </c>
       <c r="B10" s="94">
         <v>2</v>
       </c>
       <c r="C10" s="110">
-        <f>(O10/$N10*100)</f>
+        <f t="shared" si="0"/>
         <v>49.763393026272382</v>
       </c>
       <c r="D10" s="110">
-        <f>(P10/$N10*100)</f>
+        <f t="shared" si="1"/>
         <v>43.198141954039293</v>
       </c>
       <c r="E10" s="110">
-        <f>(Q10/$N10*100)</f>
+        <f t="shared" si="2"/>
         <v>37.137720587081404</v>
       </c>
       <c r="F10" s="110">
-        <f>R10/$O10*100</f>
+        <f t="shared" si="3"/>
         <v>12.178472966580715</v>
       </c>
       <c r="G10" s="111">
-        <f>S10/$O10*100</f>
+        <f t="shared" si="4"/>
         <v>13.19293294323197</v>
       </c>
       <c r="H10" s="112">
-        <f>T10/$P10*100</f>
+        <f t="shared" si="5"/>
         <v>3.8315422602967435</v>
       </c>
       <c r="I10" s="113">
-        <f>U10/$P10*100</f>
+        <f t="shared" si="6"/>
         <v>19.384760357289899</v>
       </c>
       <c r="J10" s="113">
-        <f>V10/$P10*100</f>
+        <f t="shared" si="7"/>
         <v>76.123356164835968</v>
       </c>
       <c r="K10" s="113">
-        <f>W10/$P10*100</f>
+        <f t="shared" si="8"/>
         <v>0.66034121757739483</v>
       </c>
       <c r="L10" s="112">
-        <f>X10/$V10*100</f>
+        <f t="shared" si="9"/>
         <v>57.688792480115694</v>
       </c>
       <c r="M10" s="114">
-        <f>Y10/$V10*100</f>
+        <f t="shared" si="10"/>
         <v>40.663653892504222</v>
       </c>
       <c r="N10" s="104">
         <v>12617126</v>
       </c>
       <c r="O10" s="105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6278710</v>
       </c>
       <c r="P10" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>5450364</v>
       </c>
       <c r="Q10" s="105">
@@ -12971,65 +12971,65 @@
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>2007</v>
       </c>
       <c r="B11" s="94">
         <v>2</v>
       </c>
       <c r="C11" s="110">
-        <f>(O11/$N11*100)</f>
+        <f t="shared" si="0"/>
         <v>49.095822735930298</v>
       </c>
       <c r="D11" s="110">
-        <f>(P11/$N11*100)</f>
+        <f t="shared" si="1"/>
         <v>44.373806441534157</v>
       </c>
       <c r="E11" s="110">
-        <f>(Q11/$N11*100)</f>
+        <f t="shared" si="2"/>
         <v>38.975389926543357</v>
       </c>
       <c r="F11" s="110">
-        <f>R11/$O11*100</f>
+        <f t="shared" si="3"/>
         <v>10.995673794952062</v>
       </c>
       <c r="G11" s="111">
-        <f>S11/$O11*100</f>
+        <f t="shared" si="4"/>
         <v>9.6179593929900076</v>
       </c>
       <c r="H11" s="112">
-        <f>T11/$P11*100</f>
+        <f t="shared" si="5"/>
         <v>4.2458127864215589</v>
       </c>
       <c r="I11" s="113">
-        <f>U11/$P11*100</f>
+        <f t="shared" si="6"/>
         <v>17.94308102558</v>
       </c>
       <c r="J11" s="113">
-        <f>V11/$P11*100</f>
+        <f t="shared" si="7"/>
         <v>77.12257877600085</v>
       </c>
       <c r="K11" s="113">
-        <f>W11/$P11*100</f>
+        <f t="shared" si="8"/>
         <v>0.68852741199759016</v>
       </c>
       <c r="L11" s="112">
-        <f>X11/$V11*100</f>
+        <f t="shared" si="9"/>
         <v>60.179555194691872</v>
       </c>
       <c r="M11" s="114">
-        <f>Y11/$V11*100</f>
+        <f t="shared" si="10"/>
         <v>38.458970228134021</v>
       </c>
       <c r="N11" s="104">
         <v>12725602</v>
       </c>
       <c r="O11" s="105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6247739</v>
       </c>
       <c r="P11" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>5646834</v>
       </c>
       <c r="Q11" s="105">
@@ -13062,65 +13062,65 @@
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>2008</v>
       </c>
       <c r="B12" s="94">
         <v>2</v>
       </c>
       <c r="C12" s="110">
-        <f>(O12/$N12*100)</f>
+        <f t="shared" si="0"/>
         <v>47.761091647885934</v>
       </c>
       <c r="D12" s="110">
-        <f>(P12/$N12*100)</f>
+        <f t="shared" si="1"/>
         <v>43.633605201815421</v>
       </c>
       <c r="E12" s="110">
-        <f>(Q12/$N12*100)</f>
+        <f t="shared" si="2"/>
         <v>39.474385349408891</v>
       </c>
       <c r="F12" s="110">
-        <f>R12/$O12*100</f>
+        <f t="shared" si="3"/>
         <v>8.7083852334657283</v>
       </c>
       <c r="G12" s="111">
-        <f>S12/$O12*100</f>
+        <f t="shared" si="4"/>
         <v>8.6419432715232123</v>
       </c>
       <c r="H12" s="112">
-        <f>T12/$P12*100</f>
+        <f t="shared" si="5"/>
         <v>4.3092928153561667</v>
       </c>
       <c r="I12" s="113">
-        <f>U12/$P12*100</f>
+        <f t="shared" si="6"/>
         <v>18.565282876894525</v>
       </c>
       <c r="J12" s="113">
-        <f>V12/$P12*100</f>
+        <f t="shared" si="7"/>
         <v>76.407515515001208</v>
       </c>
       <c r="K12" s="113">
-        <f>W12/$P12*100</f>
+        <f t="shared" si="8"/>
         <v>0.71790879274809571</v>
       </c>
       <c r="L12" s="112">
-        <f>X12/$V12*100</f>
+        <f t="shared" si="9"/>
         <v>65.09509067405061</v>
       </c>
       <c r="M12" s="114">
-        <f>Y12/$V12*100</f>
+        <f t="shared" si="10"/>
         <v>33.394700005120384</v>
       </c>
       <c r="N12" s="104">
         <v>12828752</v>
       </c>
       <c r="O12" s="105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6127152</v>
       </c>
       <c r="P12" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>5597647</v>
       </c>
       <c r="Q12" s="105">
@@ -13153,65 +13153,65 @@
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>2009</v>
       </c>
       <c r="B13" s="94">
         <v>2</v>
       </c>
       <c r="C13" s="110">
-        <f>(O13/$N13*100)</f>
+        <f t="shared" si="0"/>
         <v>48.770903508908376</v>
       </c>
       <c r="D13" s="110">
-        <f>(P13/$N13*100)</f>
+        <f t="shared" si="1"/>
         <v>44.432196648628512</v>
       </c>
       <c r="E13" s="110">
-        <f>(Q13/$N13*100)</f>
+        <f t="shared" si="2"/>
         <v>38.812447217172071</v>
       </c>
       <c r="F13" s="110">
-        <f>R13/$O13*100</f>
+        <f t="shared" si="3"/>
         <v>11.522750302195963</v>
       </c>
       <c r="G13" s="111">
-        <f>S13/$O13*100</f>
+        <f t="shared" si="4"/>
         <v>8.8960969515099642</v>
       </c>
       <c r="H13" s="112">
-        <f>T13/$P13*100</f>
+        <f t="shared" si="5"/>
         <v>4.1569248175406237</v>
       </c>
       <c r="I13" s="113">
-        <f>U13/$P13*100</f>
+        <f t="shared" si="6"/>
         <v>19.535989572157494</v>
       </c>
       <c r="J13" s="113">
-        <f>V13/$P13*100</f>
+        <f t="shared" si="7"/>
         <v>75.861439555019274</v>
       </c>
       <c r="K13" s="113">
-        <f>W13/$P13*100</f>
+        <f t="shared" si="8"/>
         <v>0.44564605528261347</v>
       </c>
       <c r="L13" s="112">
-        <f>X13/$V13*100</f>
+        <f t="shared" si="9"/>
         <v>65.090512863369284</v>
       </c>
       <c r="M13" s="114">
-        <f>Y13/$V13*100</f>
+        <f t="shared" si="10"/>
         <v>33.881230335768194</v>
       </c>
       <c r="N13" s="104">
         <v>12922053</v>
       </c>
       <c r="O13" s="105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6302202</v>
       </c>
       <c r="P13" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>5741552</v>
       </c>
       <c r="Q13" s="105">
@@ -13244,65 +13244,65 @@
     </row>
     <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>2010</v>
       </c>
       <c r="B14" s="94">
         <v>2</v>
       </c>
       <c r="C14" s="110">
-        <f>(O14/$N14*100)</f>
+        <f t="shared" si="0"/>
         <v>48.552812916284324</v>
       </c>
       <c r="D14" s="110">
-        <f>(P14/$N14*100)</f>
+        <f t="shared" si="1"/>
         <v>44.613759147940947</v>
       </c>
       <c r="E14" s="110">
-        <f>(Q14/$N14*100)</f>
+        <f t="shared" si="2"/>
         <v>39.390399521653215</v>
       </c>
       <c r="F14" s="110">
-        <f>R14/$O14*100</f>
+        <f t="shared" si="3"/>
         <v>10.758098887687414</v>
       </c>
       <c r="G14" s="111">
-        <f>S14/$O14*100</f>
+        <f t="shared" si="4"/>
         <v>8.1129259701907817</v>
       </c>
       <c r="H14" s="112">
-        <f>T14/$P14*100</f>
+        <f t="shared" si="5"/>
         <v>4.2967139749486103</v>
       </c>
       <c r="I14" s="113">
-        <f>U14/$P14*100</f>
+        <f t="shared" si="6"/>
         <v>18.34006839204373</v>
       </c>
       <c r="J14" s="113">
-        <f>V14/$P14*100</f>
+        <f t="shared" si="7"/>
         <v>76.795359966636696</v>
       </c>
       <c r="K14" s="113">
-        <f>W14/$P14*100</f>
+        <f t="shared" si="8"/>
         <v>0.56785766637097557</v>
       </c>
       <c r="L14" s="112">
-        <f>X14/$V14*100</f>
+        <f t="shared" si="9"/>
         <v>63.169656459134629</v>
       </c>
       <c r="M14" s="114">
-        <f>Y14/$V14*100</f>
+        <f t="shared" si="10"/>
         <v>35.863149112650866</v>
       </c>
       <c r="N14" s="104">
         <v>13028205</v>
       </c>
       <c r="O14" s="105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6325560</v>
       </c>
       <c r="P14" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>5812372</v>
       </c>
       <c r="Q14" s="105">
@@ -13335,65 +13335,65 @@
     </row>
     <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>2011</v>
       </c>
       <c r="B15" s="94">
         <v>2</v>
       </c>
       <c r="C15" s="110">
-        <f>(O15/$N15*100)</f>
+        <f t="shared" si="0"/>
         <v>49.055655555425837</v>
       </c>
       <c r="D15" s="110">
-        <f>(P15/$N15*100)</f>
+        <f t="shared" si="1"/>
         <v>45.188106203906486</v>
       </c>
       <c r="E15" s="110">
-        <f>(Q15/$N15*100)</f>
+        <f t="shared" si="2"/>
         <v>40.715628220856182</v>
       </c>
       <c r="F15" s="110">
-        <f>R15/$O15*100</f>
+        <f t="shared" si="3"/>
         <v>9.1171505760371527</v>
       </c>
       <c r="G15" s="111">
-        <f>S15/$O15*100</f>
+        <f t="shared" si="4"/>
         <v>7.8840029915604157</v>
       </c>
       <c r="H15" s="112">
-        <f>T15/$P15*100</f>
+        <f t="shared" si="5"/>
         <v>4.9042293625248208</v>
       </c>
       <c r="I15" s="113">
-        <f>U15/$P15*100</f>
+        <f t="shared" si="6"/>
         <v>16.779842446076088</v>
       </c>
       <c r="J15" s="113">
-        <f>V15/$P15*100</f>
+        <f t="shared" si="7"/>
         <v>77.597190365471675</v>
       </c>
       <c r="K15" s="113">
-        <f>W15/$P15*100</f>
+        <f t="shared" si="8"/>
         <v>0.71873782592741631</v>
       </c>
       <c r="L15" s="112">
-        <f>X15/$V15*100</f>
+        <f t="shared" si="9"/>
         <v>64.754120300702795</v>
       </c>
       <c r="M15" s="114">
-        <f>Y15/$V15*100</f>
+        <f t="shared" si="10"/>
         <v>34.605194293654193</v>
       </c>
       <c r="N15" s="104">
         <v>13105017</v>
       </c>
       <c r="O15" s="105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6428752</v>
       </c>
       <c r="P15" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>5921909</v>
       </c>
       <c r="Q15" s="105">
@@ -13426,65 +13426,65 @@
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>2012</v>
       </c>
       <c r="B16" s="94">
         <v>2</v>
       </c>
       <c r="C16" s="110">
-        <f>(O16/$N16*100)</f>
+        <f t="shared" si="0"/>
         <v>47.838132248359265</v>
       </c>
       <c r="D16" s="110">
-        <f>(P16/$N16*100)</f>
+        <f t="shared" si="1"/>
         <v>44.168956991696398</v>
       </c>
       <c r="E16" s="110">
-        <f>(Q16/$N16*100)</f>
+        <f t="shared" si="2"/>
         <v>38.811681804422633</v>
       </c>
       <c r="F16" s="110">
-        <f>R16/$O16*100</f>
+        <f t="shared" si="3"/>
         <v>11.198754916811172</v>
       </c>
       <c r="G16" s="111">
-        <f>S16/$O16*100</f>
+        <f t="shared" si="4"/>
         <v>7.6699801689868767</v>
       </c>
       <c r="H16" s="112">
-        <f>T16/$P16*100</f>
+        <f t="shared" si="5"/>
         <v>3.8440050699517614</v>
       </c>
       <c r="I16" s="113">
-        <f>U16/$P16*100</f>
+        <f t="shared" si="6"/>
         <v>18.454528441702752</v>
       </c>
       <c r="J16" s="113">
-        <f>V16/$P16*100</f>
+        <f t="shared" si="7"/>
         <v>77.073583535955464</v>
       </c>
       <c r="K16" s="113">
-        <f>W16/$P16*100</f>
+        <f t="shared" si="8"/>
         <v>0.59432776867968062</v>
       </c>
       <c r="L16" s="112">
-        <f>X16/$V16*100</f>
+        <f t="shared" si="9"/>
         <v>65.025715029005838</v>
       </c>
       <c r="M16" s="114">
-        <f>Y16/$V16*100</f>
+        <f t="shared" si="10"/>
         <v>33.246675279107571</v>
       </c>
       <c r="N16" s="104">
         <v>13211007</v>
       </c>
       <c r="O16" s="105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6319899</v>
       </c>
       <c r="P16" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>5835164</v>
       </c>
       <c r="Q16" s="105">
@@ -13517,65 +13517,65 @@
     </row>
     <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>2013</v>
       </c>
       <c r="B17" s="94">
         <v>2</v>
       </c>
       <c r="C17" s="110">
-        <f>(O17/$N17*100)</f>
+        <f t="shared" si="0"/>
         <v>48.505713126770871</v>
       </c>
       <c r="D17" s="110">
-        <f>(P17/$N17*100)</f>
+        <f t="shared" si="1"/>
         <v>44.825672298948248</v>
       </c>
       <c r="E17" s="110">
-        <f>(Q17/$N17*100)</f>
+        <f t="shared" si="2"/>
         <v>39.176459365965101</v>
       </c>
       <c r="F17" s="110">
-        <f>R17/$O17*100</f>
+        <f t="shared" si="3"/>
         <v>11.646489802590459</v>
       </c>
       <c r="G17" s="111">
-        <f>S17/$O17*100</f>
+        <f t="shared" si="4"/>
         <v>7.5868193468359975</v>
       </c>
       <c r="H17" s="112">
-        <f>T17/$P17*100</f>
+        <f t="shared" si="5"/>
         <v>3.5993508574957667</v>
       </c>
       <c r="I17" s="113">
-        <f>U17/$P17*100</f>
+        <f t="shared" si="6"/>
         <v>19.512857821344838</v>
       </c>
       <c r="J17" s="113">
-        <f>V17/$P17*100</f>
+        <f t="shared" si="7"/>
         <v>76.520676732738906</v>
       </c>
       <c r="K17" s="113">
-        <f>W17/$P17*100</f>
+        <f t="shared" si="8"/>
         <v>0.36711458842049266</v>
       </c>
       <c r="L17" s="112">
-        <f>X17/$V17*100</f>
+        <f t="shared" si="9"/>
         <v>65.284530343119016</v>
       </c>
       <c r="M17" s="114">
-        <f>Y17/$V17*100</f>
+        <f t="shared" si="10"/>
         <v>33.984942485981179</v>
       </c>
       <c r="N17" s="104">
         <v>13292896</v>
       </c>
       <c r="O17" s="105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6447814</v>
       </c>
       <c r="P17" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>5958630</v>
       </c>
       <c r="Q17" s="105">
@@ -14206,58 +14206,58 @@
         <v>3</v>
       </c>
       <c r="C7" s="130">
-        <f>(O7/$N7*100)</f>
+        <f t="shared" ref="C7:E10" si="0">(O7/$N7*100)</f>
         <v>48.916288812188839</v>
       </c>
       <c r="D7" s="130">
-        <f>(P7/$N7*100)</f>
+        <f t="shared" si="0"/>
         <v>38.19202090262376</v>
       </c>
       <c r="E7" s="130">
-        <f>(Q7/$N7*100)</f>
+        <f t="shared" si="0"/>
         <v>30.764700559659097</v>
       </c>
       <c r="F7" s="130">
-        <f>R7/$O7*100</f>
+        <f t="shared" ref="F7:G10" si="1">R7/$O7*100</f>
         <v>15.183736385810889</v>
       </c>
       <c r="G7" s="131">
-        <f>S7/$O7*100</f>
+        <f t="shared" si="1"/>
         <v>21.923715330777164</v>
       </c>
       <c r="H7" s="112">
-        <f>T7/$P7*100</f>
+        <f t="shared" ref="H7:K10" si="2">T7/$P7*100</f>
         <v>3.7777069812408506</v>
       </c>
       <c r="I7" s="113">
-        <f>U7/$P7*100</f>
+        <f t="shared" si="2"/>
         <v>21.638711697223478</v>
       </c>
       <c r="J7" s="113">
-        <f>V7/$P7*100</f>
+        <f t="shared" si="2"/>
         <v>73.312107098663176</v>
       </c>
       <c r="K7" s="113">
-        <f>W7/$P7*100</f>
+        <f t="shared" si="2"/>
         <v>1.2384704045258501</v>
       </c>
       <c r="L7" s="112">
-        <f>X7/$V7*100</f>
+        <f t="shared" ref="L7:M10" si="3">X7/$V7*100</f>
         <v>53.375340710807876</v>
       </c>
       <c r="M7" s="114">
-        <f>Y7/$V7*100</f>
+        <f t="shared" si="3"/>
         <v>45.121495716468431</v>
       </c>
       <c r="N7" s="104">
         <v>12344479</v>
       </c>
       <c r="O7" s="105">
-        <f t="shared" ref="O7:O10" si="0">P7+S7</f>
+        <f t="shared" ref="O7:O10" si="4">P7+S7</f>
         <v>6038461</v>
       </c>
       <c r="P7" s="105">
-        <f t="shared" ref="P7:P10" si="1">Q7+R7</f>
+        <f t="shared" ref="P7:P10" si="5">Q7+R7</f>
         <v>4714606</v>
       </c>
       <c r="Q7" s="105">
@@ -14297,58 +14297,58 @@
         <v>3</v>
       </c>
       <c r="C8" s="110">
-        <f>(O8/$N8*100)</f>
+        <f t="shared" si="0"/>
         <v>49.420042950846174</v>
       </c>
       <c r="D8" s="110">
-        <f>(P8/$N8*100)</f>
+        <f t="shared" si="0"/>
         <v>40.432861860476898</v>
       </c>
       <c r="E8" s="110">
-        <f>(Q8/$N8*100)</f>
+        <f t="shared" si="0"/>
         <v>33.430820468920949</v>
       </c>
       <c r="F8" s="110">
-        <f>R8/$O8*100</f>
+        <f t="shared" si="1"/>
         <v>14.168424334475532</v>
       </c>
       <c r="G8" s="111">
-        <f>S8/$O8*100</f>
+        <f t="shared" si="1"/>
         <v>18.18529599277775</v>
       </c>
       <c r="H8" s="112">
-        <f>T8/$P8*100</f>
+        <f t="shared" si="2"/>
         <v>4.1213353129596246</v>
       </c>
       <c r="I8" s="113">
-        <f>U8/$P8*100</f>
+        <f t="shared" si="2"/>
         <v>21.056110074116653</v>
       </c>
       <c r="J8" s="113">
-        <f>V8/$P8*100</f>
+        <f t="shared" si="2"/>
         <v>73.734184453303925</v>
       </c>
       <c r="K8" s="113">
-        <f>W8/$P8*100</f>
+        <f t="shared" si="2"/>
         <v>1.0883701596198003</v>
       </c>
       <c r="L8" s="112">
-        <f>X8/$V8*100</f>
+        <f t="shared" si="3"/>
         <v>56.039268788083952</v>
       </c>
       <c r="M8" s="114">
-        <f>Y8/$V8*100</f>
+        <f t="shared" si="3"/>
         <v>42.500950834441511</v>
       </c>
       <c r="N8" s="104">
         <v>12435145</v>
       </c>
       <c r="O8" s="105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6145454</v>
       </c>
       <c r="P8" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5027885</v>
       </c>
       <c r="Q8" s="105">
@@ -14381,65 +14381,65 @@
     </row>
     <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="93">
-        <f t="shared" ref="A9:A17" si="2">A8+1</f>
+        <f t="shared" ref="A9:A17" si="6">A8+1</f>
         <v>2005</v>
       </c>
       <c r="B9" s="94">
         <v>3</v>
       </c>
       <c r="C9" s="110">
-        <f>(O9/$N9*100)</f>
+        <f t="shared" si="0"/>
         <v>49.364065755397824</v>
       </c>
       <c r="D9" s="110">
-        <f>(P9/$N9*100)</f>
+        <f t="shared" si="0"/>
         <v>42.10227522034824</v>
       </c>
       <c r="E9" s="110">
-        <f>(Q9/$N9*100)</f>
+        <f t="shared" si="0"/>
         <v>35.617382396460954</v>
       </c>
       <c r="F9" s="110">
-        <f>R9/$O9*100</f>
+        <f t="shared" si="1"/>
         <v>13.13686934949879</v>
       </c>
       <c r="G9" s="111">
-        <f>S9/$O9*100</f>
+        <f t="shared" si="1"/>
         <v>14.710681593838387</v>
       </c>
       <c r="H9" s="112">
-        <f>T9/$P9*100</f>
+        <f t="shared" si="2"/>
         <v>4.2122777826429632</v>
       </c>
       <c r="I9" s="113">
-        <f>U9/$P9*100</f>
+        <f t="shared" si="2"/>
         <v>20.69373218861293</v>
       </c>
       <c r="J9" s="113">
-        <f>V9/$P9*100</f>
+        <f t="shared" si="2"/>
         <v>74.227600280461672</v>
       </c>
       <c r="K9" s="113">
-        <f>W9/$P9*100</f>
+        <f t="shared" si="2"/>
         <v>0.86638974828243709</v>
       </c>
       <c r="L9" s="112">
-        <f>X9/$V9*100</f>
+        <f t="shared" si="3"/>
         <v>56.361476919721198</v>
       </c>
       <c r="M9" s="114">
-        <f>Y9/$V9*100</f>
+        <f t="shared" si="3"/>
         <v>42.191401461263865</v>
       </c>
       <c r="N9" s="104">
         <v>12557509</v>
       </c>
       <c r="O9" s="105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6198897</v>
       </c>
       <c r="P9" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5286997</v>
       </c>
       <c r="Q9" s="105">
@@ -14472,65 +14472,65 @@
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2006</v>
       </c>
       <c r="B10" s="94">
         <v>3</v>
       </c>
       <c r="C10" s="110">
-        <f>(O10/$N10*100)</f>
+        <f t="shared" si="0"/>
         <v>49.223781209195025</v>
       </c>
       <c r="D10" s="110">
-        <f>(P10/$N10*100)</f>
+        <f t="shared" si="0"/>
         <v>42.918519732897607</v>
       </c>
       <c r="E10" s="110">
-        <f>(Q10/$N10*100)</f>
+        <f t="shared" si="0"/>
         <v>37.418364368199235</v>
       </c>
       <c r="F10" s="110">
-        <f>R10/$O10*100</f>
+        <f t="shared" si="1"/>
         <v>11.173776637197758</v>
       </c>
       <c r="G10" s="111">
-        <f>S10/$O10*100</f>
+        <f t="shared" si="1"/>
         <v>12.809380590858776</v>
       </c>
       <c r="H10" s="112">
-        <f>T10/$P10*100</f>
+        <f t="shared" si="2"/>
         <v>4.2771895380297149</v>
       </c>
       <c r="I10" s="113">
-        <f>U10/$P10*100</f>
+        <f t="shared" si="2"/>
         <v>18.683431652966995</v>
       </c>
       <c r="J10" s="113">
-        <f>V10/$P10*100</f>
+        <f t="shared" si="2"/>
         <v>76.335271485587256</v>
       </c>
       <c r="K10" s="113">
-        <f>W10/$P10*100</f>
+        <f t="shared" si="2"/>
         <v>0.70410732341603477</v>
       </c>
       <c r="L10" s="112">
-        <f>X10/$V10*100</f>
+        <f t="shared" si="3"/>
         <v>58.535659111675045</v>
       </c>
       <c r="M10" s="114">
-        <f>Y10/$V10*100</f>
+        <f t="shared" si="3"/>
         <v>40.236307919772756</v>
       </c>
       <c r="N10" s="104">
         <v>12650879</v>
       </c>
       <c r="O10" s="105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6227241</v>
       </c>
       <c r="P10" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5429570</v>
       </c>
       <c r="Q10" s="105">
@@ -14563,7 +14563,7 @@
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2007</v>
       </c>
       <c r="B11" s="94">
@@ -14595,65 +14595,65 @@
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2008</v>
       </c>
       <c r="B12" s="94">
         <v>3</v>
       </c>
       <c r="C12" s="110">
-        <f>(O12/$N12*100)</f>
+        <f t="shared" ref="C12:E17" si="7">(O12/$N12*100)</f>
         <v>47.542564268382712</v>
       </c>
       <c r="D12" s="110">
-        <f>(P12/$N12*100)</f>
+        <f t="shared" si="7"/>
         <v>43.385992772323362</v>
       </c>
       <c r="E12" s="110">
-        <f>(Q12/$N12*100)</f>
+        <f t="shared" si="7"/>
         <v>38.652501775253626</v>
       </c>
       <c r="F12" s="110">
-        <f>R12/$O12*100</f>
+        <f t="shared" ref="F12:G17" si="8">R12/$O12*100</f>
         <v>9.9563224447648295</v>
       </c>
       <c r="G12" s="111">
-        <f>S12/$O12*100</f>
+        <f t="shared" si="8"/>
         <v>8.7428424613259708</v>
       </c>
       <c r="H12" s="112">
-        <f>T12/$P12*100</f>
+        <f t="shared" ref="H12:K17" si="9">T12/$P12*100</f>
         <v>4.0067483890265514</v>
       </c>
       <c r="I12" s="113">
-        <f>U12/$P12*100</f>
+        <f t="shared" si="9"/>
         <v>19.14568464981793</v>
       </c>
       <c r="J12" s="113">
-        <f>V12/$P12*100</f>
+        <f t="shared" si="9"/>
         <v>76.581770239876974</v>
       </c>
       <c r="K12" s="113">
-        <f>W12/$P12*100</f>
+        <f t="shared" si="9"/>
         <v>0.23758877076099777</v>
       </c>
       <c r="L12" s="112">
-        <f>X12/$V12*100</f>
+        <f t="shared" ref="L12:M17" si="10">X12/$V12*100</f>
         <v>64.538847330242703</v>
       </c>
       <c r="M12" s="114">
-        <f>Y12/$V12*100</f>
+        <f t="shared" si="10"/>
         <v>33.612814123185416</v>
       </c>
       <c r="N12" s="104">
         <v>12853093</v>
       </c>
       <c r="O12" s="105">
-        <f t="shared" ref="O12:O17" si="3">P12+S12</f>
+        <f t="shared" ref="O12:O17" si="11">P12+S12</f>
         <v>6110690</v>
       </c>
       <c r="P12" s="105">
-        <f t="shared" ref="P12:P17" si="4">Q12+R12</f>
+        <f t="shared" ref="P12:P17" si="12">Q12+R12</f>
         <v>5576442</v>
       </c>
       <c r="Q12" s="105">
@@ -14686,65 +14686,65 @@
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2009</v>
       </c>
       <c r="B13" s="94">
         <v>3</v>
       </c>
       <c r="C13" s="110">
-        <f>(O13/$N13*100)</f>
+        <f t="shared" si="7"/>
         <v>48.685642487185532</v>
       </c>
       <c r="D13" s="110">
-        <f>(P13/$N13*100)</f>
+        <f t="shared" si="7"/>
         <v>43.866827326028265</v>
       </c>
       <c r="E13" s="110">
-        <f>(Q13/$N13*100)</f>
+        <f t="shared" si="7"/>
         <v>38.135662291487968</v>
       </c>
       <c r="F13" s="110">
-        <f>R13/$O13*100</f>
+        <f t="shared" si="8"/>
         <v>11.771776527440888</v>
       </c>
       <c r="G13" s="111">
-        <f>S13/$O13*100</f>
+        <f t="shared" si="8"/>
         <v>9.8978156905819255</v>
       </c>
       <c r="H13" s="112">
-        <f>T13/$P13*100</f>
+        <f t="shared" si="9"/>
         <v>3.9685702717643698</v>
       </c>
       <c r="I13" s="113">
-        <f>U13/$P13*100</f>
+        <f t="shared" si="9"/>
         <v>18.944730813035349</v>
       </c>
       <c r="J13" s="113">
-        <f>V13/$P13*100</f>
+        <f t="shared" si="9"/>
         <v>76.274345121536072</v>
       </c>
       <c r="K13" s="113">
-        <f>W13/$P13*100</f>
+        <f t="shared" si="9"/>
         <v>0.81235379366421456</v>
       </c>
       <c r="L13" s="112">
-        <f>X13/$V13*100</f>
+        <f t="shared" si="10"/>
         <v>63.875711930931466</v>
       </c>
       <c r="M13" s="114">
-        <f>Y13/$V13*100</f>
+        <f t="shared" si="10"/>
         <v>35.212905647952681</v>
       </c>
       <c r="N13" s="104">
         <v>12944157</v>
       </c>
       <c r="O13" s="105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>6301946</v>
       </c>
       <c r="P13" s="105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>5678191</v>
       </c>
       <c r="Q13" s="105">
@@ -14777,65 +14777,65 @@
     </row>
     <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2010</v>
       </c>
       <c r="B14" s="94">
         <v>3</v>
       </c>
       <c r="C14" s="110">
-        <f>(O14/$N14*100)</f>
+        <f t="shared" si="7"/>
         <v>48.617013562979785</v>
       </c>
       <c r="D14" s="110">
-        <f>(P14/$N14*100)</f>
+        <f t="shared" si="7"/>
         <v>44.609345191532228</v>
       </c>
       <c r="E14" s="110">
-        <f>(Q14/$N14*100)</f>
+        <f t="shared" si="7"/>
         <v>40.056809167094741</v>
       </c>
       <c r="F14" s="110">
-        <f>R14/$O14*100</f>
+        <f t="shared" si="8"/>
         <v>9.3640799604854692</v>
       </c>
       <c r="G14" s="111">
-        <f>S14/$O14*100</f>
+        <f t="shared" si="8"/>
         <v>8.2433454417267082</v>
       </c>
       <c r="H14" s="112">
-        <f>T14/$P14*100</f>
+        <f t="shared" si="9"/>
         <v>4.653727275554461</v>
       </c>
       <c r="I14" s="113">
-        <f>U14/$P14*100</f>
+        <f t="shared" si="9"/>
         <v>17.413058758865169</v>
       </c>
       <c r="J14" s="113">
-        <f>V14/$P14*100</f>
+        <f t="shared" si="9"/>
         <v>77.002131747017117</v>
       </c>
       <c r="K14" s="113">
-        <f>W14/$P14*100</f>
+        <f t="shared" si="9"/>
         <v>0.93108221856326068</v>
       </c>
       <c r="L14" s="112">
-        <f>X14/$V14*100</f>
+        <f t="shared" si="10"/>
         <v>63.283468790666205</v>
       </c>
       <c r="M14" s="114">
-        <f>Y14/$V14*100</f>
+        <f t="shared" si="10"/>
         <v>35.915724891601407</v>
       </c>
       <c r="N14" s="104">
         <v>13046838</v>
       </c>
       <c r="O14" s="105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>6342983</v>
       </c>
       <c r="P14" s="105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>5820109</v>
       </c>
       <c r="Q14" s="105">
@@ -14868,65 +14868,65 @@
     </row>
     <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2011</v>
       </c>
       <c r="B15" s="94">
         <v>3</v>
       </c>
       <c r="C15" s="110">
-        <f>(O15/$N15*100)</f>
+        <f t="shared" si="7"/>
         <v>49.123456197570142</v>
       </c>
       <c r="D15" s="110">
-        <f>(P15/$N15*100)</f>
+        <f t="shared" si="7"/>
         <v>45.301073376469517</v>
       </c>
       <c r="E15" s="110">
-        <f>(Q15/$N15*100)</f>
+        <f t="shared" si="7"/>
         <v>40.660611448993478</v>
       </c>
       <c r="F15" s="110">
-        <f>R15/$O15*100</f>
+        <f t="shared" si="8"/>
         <v>9.446529797928962</v>
       </c>
       <c r="G15" s="111">
-        <f>S15/$O15*100</f>
+        <f t="shared" si="8"/>
         <v>7.781176482630495</v>
       </c>
       <c r="H15" s="112">
-        <f>T15/$P15*100</f>
+        <f t="shared" si="9"/>
         <v>4.236868836358255</v>
       </c>
       <c r="I15" s="113">
-        <f>U15/$P15*100</f>
+        <f t="shared" si="9"/>
         <v>17.208030056372518</v>
       </c>
       <c r="J15" s="113">
-        <f>V15/$P15*100</f>
+        <f t="shared" si="9"/>
         <v>78.066146891439175</v>
       </c>
       <c r="K15" s="113">
-        <f>W15/$P15*100</f>
+        <f t="shared" si="9"/>
         <v>0.467293177445612</v>
       </c>
       <c r="L15" s="112">
-        <f>X15/$V15*100</f>
+        <f t="shared" si="10"/>
         <v>65.554322354154664</v>
       </c>
       <c r="M15" s="114">
-        <f>Y15/$V15*100</f>
+        <f t="shared" si="10"/>
         <v>33.542800442401429</v>
       </c>
       <c r="N15" s="104">
         <v>13125870</v>
       </c>
       <c r="O15" s="105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>6447881</v>
       </c>
       <c r="P15" s="105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>5946160</v>
       </c>
       <c r="Q15" s="105">
@@ -14959,65 +14959,65 @@
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2012</v>
       </c>
       <c r="B16" s="94">
         <v>3</v>
       </c>
       <c r="C16" s="110">
-        <f>(O16/$N16*100)</f>
+        <f t="shared" si="7"/>
         <v>49.579714584649743</v>
       </c>
       <c r="D16" s="110">
-        <f>(P16/$N16*100)</f>
+        <f t="shared" si="7"/>
         <v>45.396839838151692</v>
       </c>
       <c r="E16" s="110">
-        <f>(Q16/$N16*100)</f>
+        <f t="shared" si="7"/>
         <v>40.489258197262032</v>
       </c>
       <c r="F16" s="110">
-        <f>R16/$O16*100</f>
+        <f t="shared" si="8"/>
         <v>9.8983660595922025</v>
       </c>
       <c r="G16" s="111">
-        <f>S16/$O16*100</f>
+        <f t="shared" si="8"/>
         <v>8.436665643478916</v>
       </c>
       <c r="H16" s="112">
-        <f>T16/$P16*100</f>
+        <f t="shared" si="9"/>
         <v>3.7839766910444821</v>
       </c>
       <c r="I16" s="113">
-        <f>U16/$P16*100</f>
+        <f t="shared" si="9"/>
         <v>16.723932560629386</v>
       </c>
       <c r="J16" s="113">
-        <f>V16/$P16*100</f>
+        <f t="shared" si="9"/>
         <v>79.098658909443429</v>
       </c>
       <c r="K16" s="113">
-        <f>W16/$P16*100</f>
+        <f t="shared" si="9"/>
         <v>0.39343183888270417</v>
       </c>
       <c r="L16" s="112">
-        <f>X16/$V16*100</f>
+        <f t="shared" si="10"/>
         <v>63.912706501241914</v>
       </c>
       <c r="M16" s="114">
-        <f>Y16/$V16*100</f>
+        <f t="shared" si="10"/>
         <v>34.04037357987815</v>
       </c>
       <c r="N16" s="104">
         <v>13233626</v>
       </c>
       <c r="O16" s="105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>6561194</v>
       </c>
       <c r="P16" s="105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>6007648</v>
       </c>
       <c r="Q16" s="105">
@@ -15050,65 +15050,65 @@
     </row>
     <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2013</v>
       </c>
       <c r="B17" s="94">
         <v>3</v>
       </c>
       <c r="C17" s="110">
-        <f>(O17/$N17*100)</f>
+        <f t="shared" si="7"/>
         <v>47.913572860101077</v>
       </c>
       <c r="D17" s="110">
-        <f>(P17/$N17*100)</f>
+        <f t="shared" si="7"/>
         <v>44.387848643056067</v>
       </c>
       <c r="E17" s="110">
-        <f>(Q17/$N17*100)</f>
+        <f t="shared" si="7"/>
         <v>39.748654128504505</v>
       </c>
       <c r="F17" s="110">
-        <f>R17/$O17*100</f>
+        <f t="shared" si="8"/>
         <v>9.6824224068974356</v>
       </c>
       <c r="G17" s="111">
-        <f>S17/$O17*100</f>
+        <f t="shared" si="8"/>
         <v>7.3585082609879437</v>
       </c>
       <c r="H17" s="112">
-        <f>T17/$P17*100</f>
+        <f t="shared" si="9"/>
         <v>3.8378922292023963</v>
       </c>
       <c r="I17" s="113">
-        <f>U17/$P17*100</f>
+        <f t="shared" si="9"/>
         <v>18.376221633793449</v>
       </c>
       <c r="J17" s="113">
-        <f>V17/$P17*100</f>
+        <f t="shared" si="9"/>
         <v>77.598631486227319</v>
       </c>
       <c r="K17" s="113">
-        <f>W17/$P17*100</f>
+        <f t="shared" si="9"/>
         <v>0.1872546507768364</v>
       </c>
       <c r="L17" s="112">
-        <f>X17/$V17*100</f>
+        <f t="shared" si="10"/>
         <v>64.541344246085757</v>
       </c>
       <c r="M17" s="114">
-        <f>Y17/$V17*100</f>
+        <f t="shared" si="10"/>
         <v>34.623407679726107</v>
       </c>
       <c r="N17" s="104">
         <v>13330396</v>
       </c>
       <c r="O17" s="105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>6387069</v>
       </c>
       <c r="P17" s="105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>5917076</v>
       </c>
       <c r="Q17" s="105">
@@ -15739,58 +15739,58 @@
         <v>4</v>
       </c>
       <c r="C7" s="130">
-        <f>(O7/$N7*100)</f>
+        <f t="shared" ref="C7:C17" si="0">(O7/$N7*100)</f>
         <v>48.524029655896086</v>
       </c>
       <c r="D7" s="130">
-        <f>(P7/$N7*100)</f>
+        <f t="shared" ref="D7:D17" si="1">(P7/$N7*100)</f>
         <v>38.793343302675112</v>
       </c>
       <c r="E7" s="130">
-        <f>(Q7/$N7*100)</f>
+        <f t="shared" ref="E7:E17" si="2">(Q7/$N7*100)</f>
         <v>31.686126547069581</v>
       </c>
       <c r="F7" s="130">
-        <f>R7/$O7*100</f>
+        <f t="shared" ref="F7:F17" si="3">R7/$O7*100</f>
         <v>14.646798310045019</v>
       </c>
       <c r="G7" s="131">
-        <f>S7/$O7*100</f>
+        <f t="shared" ref="G7:G17" si="4">S7/$O7*100</f>
         <v>20.053335269608237</v>
       </c>
       <c r="H7" s="112">
-        <f>T7/$P7*100</f>
+        <f t="shared" ref="H7:H17" si="5">T7/$P7*100</f>
         <v>3.9647138447206687</v>
       </c>
       <c r="I7" s="113">
-        <f>U7/$P7*100</f>
+        <f t="shared" ref="I7:I17" si="6">U7/$P7*100</f>
         <v>21.106596093800615</v>
       </c>
       <c r="J7" s="113">
-        <f>V7/$P7*100</f>
+        <f t="shared" ref="J7:J17" si="7">V7/$P7*100</f>
         <v>73.897031635928002</v>
       </c>
       <c r="K7" s="113">
-        <f>W7/$P7*100</f>
+        <f t="shared" ref="K7:K17" si="8">W7/$P7*100</f>
         <v>1.0316584255507162</v>
       </c>
       <c r="L7" s="112">
-        <f>X7/$V7*100</f>
+        <f t="shared" ref="L7:L17" si="9">X7/$V7*100</f>
         <v>55.178940104480859</v>
       </c>
       <c r="M7" s="114">
-        <f>Y7/$V7*100</f>
+        <f t="shared" ref="M7:M17" si="10">Y7/$V7*100</f>
         <v>42.862833070796889</v>
       </c>
       <c r="N7" s="104">
         <v>12374605</v>
       </c>
       <c r="O7" s="105">
-        <f t="shared" ref="O7:O17" si="0">P7+S7</f>
+        <f t="shared" ref="O7:O17" si="11">P7+S7</f>
         <v>6004657</v>
       </c>
       <c r="P7" s="105">
-        <f t="shared" ref="P7:P17" si="1">Q7+R7</f>
+        <f t="shared" ref="P7:P17" si="12">Q7+R7</f>
         <v>4800523</v>
       </c>
       <c r="Q7" s="105">
@@ -15830,58 +15830,58 @@
         <v>4</v>
       </c>
       <c r="C8" s="110">
-        <f>(O8/$N8*100)</f>
+        <f t="shared" si="0"/>
         <v>49.263679626574103</v>
       </c>
       <c r="D8" s="110">
-        <f>(P8/$N8*100)</f>
+        <f t="shared" si="1"/>
         <v>41.177266616640892</v>
       </c>
       <c r="E8" s="110">
-        <f>(Q8/$N8*100)</f>
+        <f t="shared" si="2"/>
         <v>34.420576565640445</v>
       </c>
       <c r="F8" s="110">
-        <f>R8/$O8*100</f>
+        <f t="shared" si="3"/>
         <v>13.715358053269961</v>
       </c>
       <c r="G8" s="111">
-        <f>S8/$O8*100</f>
+        <f t="shared" si="4"/>
         <v>16.414553421972141</v>
       </c>
       <c r="H8" s="112">
-        <f>T8/$P8*100</f>
+        <f t="shared" si="5"/>
         <v>3.9728948300459295</v>
       </c>
       <c r="I8" s="113">
-        <f>U8/$P8*100</f>
+        <f t="shared" si="6"/>
         <v>21.11962035296991</v>
       </c>
       <c r="J8" s="113">
-        <f>V8/$P8*100</f>
+        <f t="shared" si="7"/>
         <v>73.774691588442565</v>
       </c>
       <c r="K8" s="113">
-        <f>W8/$P8*100</f>
+        <f t="shared" si="8"/>
         <v>1.1327932285415943</v>
       </c>
       <c r="L8" s="112">
-        <f>X8/$V8*100</f>
+        <f t="shared" si="9"/>
         <v>54.612665655257395</v>
       </c>
       <c r="M8" s="114">
-        <f>Y8/$V8*100</f>
+        <f t="shared" si="10"/>
         <v>44.1626519425769</v>
       </c>
       <c r="N8" s="104">
         <v>12458911</v>
       </c>
       <c r="O8" s="105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6137718</v>
       </c>
       <c r="P8" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>5130239</v>
       </c>
       <c r="Q8" s="105">
@@ -15914,65 +15914,65 @@
     </row>
     <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="93">
-        <f t="shared" ref="A9:A17" si="2">A8+1</f>
+        <f t="shared" ref="A9:A17" si="13">A8+1</f>
         <v>2005</v>
       </c>
       <c r="B9" s="94">
         <v>4</v>
       </c>
       <c r="C9" s="110">
-        <f>(O9/$N9*100)</f>
+        <f t="shared" si="0"/>
         <v>48.702789742815284</v>
       </c>
       <c r="D9" s="110">
-        <f>(P9/$N9*100)</f>
+        <f t="shared" si="1"/>
         <v>42.366324657493003</v>
       </c>
       <c r="E9" s="110">
-        <f>(Q9/$N9*100)</f>
+        <f t="shared" si="2"/>
         <v>36.589127170095118</v>
       </c>
       <c r="F9" s="110">
-        <f>R9/$O9*100</f>
+        <f t="shared" si="3"/>
         <v>11.862149001947351</v>
       </c>
       <c r="G9" s="111">
-        <f>S9/$O9*100</f>
+        <f t="shared" si="4"/>
         <v>13.010476645759386</v>
       </c>
       <c r="H9" s="112">
-        <f>T9/$P9*100</f>
+        <f t="shared" si="5"/>
         <v>3.5480209673474228</v>
       </c>
       <c r="I9" s="113">
-        <f>U9/$P9*100</f>
+        <f t="shared" si="6"/>
         <v>20.590279599100349</v>
       </c>
       <c r="J9" s="113">
-        <f>V9/$P9*100</f>
+        <f t="shared" si="7"/>
         <v>74.789812325282284</v>
       </c>
       <c r="K9" s="113">
-        <f>W9/$P9*100</f>
+        <f t="shared" si="8"/>
         <v>1.0718871082699419</v>
       </c>
       <c r="L9" s="112">
-        <f>X9/$V9*100</f>
+        <f t="shared" si="9"/>
         <v>57.170433655109591</v>
       </c>
       <c r="M9" s="114">
-        <f>Y9/$V9*100</f>
+        <f t="shared" si="10"/>
         <v>41.61562162913588</v>
       </c>
       <c r="N9" s="104">
         <v>12554634</v>
       </c>
       <c r="O9" s="105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6114457</v>
       </c>
       <c r="P9" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>5318937</v>
       </c>
       <c r="Q9" s="105">
@@ -16005,65 +16005,65 @@
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>2006</v>
       </c>
       <c r="B10" s="94">
         <v>4</v>
       </c>
       <c r="C10" s="110">
-        <f>(O10/$N10*100)</f>
+        <f t="shared" si="0"/>
         <v>48.828684479666457</v>
       </c>
       <c r="D10" s="110">
-        <f>(P10/$N10*100)</f>
+        <f t="shared" si="1"/>
         <v>43.475565256039424</v>
       </c>
       <c r="E10" s="110">
-        <f>(Q10/$N10*100)</f>
+        <f t="shared" si="2"/>
         <v>37.827507855353737</v>
       </c>
       <c r="F10" s="110">
-        <f>R10/$O10*100</f>
+        <f t="shared" si="3"/>
         <v>11.567089019237629</v>
       </c>
       <c r="G10" s="111">
-        <f>S10/$O10*100</f>
+        <f t="shared" si="4"/>
         <v>10.963062553643468</v>
       </c>
       <c r="H10" s="112">
-        <f>T10/$P10*100</f>
+        <f t="shared" si="5"/>
         <v>3.5869934169736974</v>
       </c>
       <c r="I10" s="113">
-        <f>U10/$P10*100</f>
+        <f t="shared" si="6"/>
         <v>19.527954784487115</v>
       </c>
       <c r="J10" s="113">
-        <f>V10/$P10*100</f>
+        <f t="shared" si="7"/>
         <v>75.923455329256711</v>
       </c>
       <c r="K10" s="113">
-        <f>W10/$P10*100</f>
+        <f t="shared" si="8"/>
         <v>0.96159646928248144</v>
       </c>
       <c r="L10" s="112">
-        <f>X10/$V10*100</f>
+        <f t="shared" si="9"/>
         <v>57.424646137991161</v>
       </c>
       <c r="M10" s="114">
-        <f>Y10/$V10*100</f>
+        <f t="shared" si="10"/>
         <v>40.970783722287763</v>
       </c>
       <c r="N10" s="104">
         <v>12658246</v>
       </c>
       <c r="O10" s="105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6180855</v>
       </c>
       <c r="P10" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>5503244</v>
       </c>
       <c r="Q10" s="105">
@@ -16096,65 +16096,65 @@
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>2007</v>
       </c>
       <c r="B11" s="94">
         <v>4</v>
       </c>
       <c r="C11" s="110">
-        <f>(O11/$N11*100)</f>
+        <f t="shared" si="0"/>
         <v>47.672690048382314</v>
       </c>
       <c r="D11" s="110">
-        <f>(P11/$N11*100)</f>
+        <f t="shared" si="1"/>
         <v>43.757548102708043</v>
       </c>
       <c r="E11" s="110">
-        <f>(Q11/$N11*100)</f>
+        <f t="shared" si="2"/>
         <v>39.047829841850472</v>
       </c>
       <c r="F11" s="110">
-        <f>R11/$O11*100</f>
+        <f t="shared" si="3"/>
         <v>9.8792794282801033</v>
       </c>
       <c r="G11" s="111">
-        <f>S11/$O11*100</f>
+        <f t="shared" si="4"/>
         <v>8.2125467258106344</v>
       </c>
       <c r="H11" s="112">
-        <f>T11/$P11*100</f>
+        <f t="shared" si="5"/>
         <v>4.2689036375614231</v>
       </c>
       <c r="I11" s="113">
-        <f>U11/$P11*100</f>
+        <f t="shared" si="6"/>
         <v>17.195298750175979</v>
       </c>
       <c r="J11" s="113">
-        <f>V11/$P11*100</f>
+        <f t="shared" si="7"/>
         <v>77.639061684470036</v>
       </c>
       <c r="K11" s="113">
-        <f>W11/$P11*100</f>
+        <f t="shared" si="8"/>
         <v>0.89673592779256261</v>
       </c>
       <c r="L11" s="112">
-        <f>X11/$V11*100</f>
+        <f t="shared" si="9"/>
         <v>60.954978868912981</v>
       </c>
       <c r="M11" s="114">
-        <f>Y11/$V11*100</f>
+        <f t="shared" si="10"/>
         <v>37.568578849903183</v>
       </c>
       <c r="N11" s="104">
         <v>12759001</v>
       </c>
       <c r="O11" s="105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6082559</v>
       </c>
       <c r="P11" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>5583026</v>
       </c>
       <c r="Q11" s="105">
@@ -16187,65 +16187,65 @@
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>2008</v>
       </c>
       <c r="B12" s="94">
         <v>4</v>
       </c>
       <c r="C12" s="110">
-        <f>(O12/$N12*100)</f>
+        <f t="shared" si="0"/>
         <v>48.524792442949945</v>
       </c>
       <c r="D12" s="110">
-        <f>(P12/$N12*100)</f>
+        <f t="shared" si="1"/>
         <v>44.768688545349164</v>
       </c>
       <c r="E12" s="110">
-        <f>(Q12/$N12*100)</f>
+        <f t="shared" si="2"/>
         <v>39.836935536953746</v>
       </c>
       <c r="F12" s="110">
-        <f>R12/$O12*100</f>
+        <f t="shared" si="3"/>
         <v>10.163367549059856</v>
       </c>
       <c r="G12" s="111">
-        <f>S12/$O12*100</f>
+        <f t="shared" si="4"/>
         <v>7.7405872513865672</v>
       </c>
       <c r="H12" s="112">
-        <f>T12/$P12*100</f>
+        <f t="shared" si="5"/>
         <v>4.5944605538124117</v>
       </c>
       <c r="I12" s="113">
-        <f>U12/$P12*100</f>
+        <f t="shared" si="6"/>
         <v>17.71332716250507</v>
       </c>
       <c r="J12" s="113">
-        <f>V12/$P12*100</f>
+        <f t="shared" si="7"/>
         <v>77.06184495472165</v>
       </c>
       <c r="K12" s="113">
-        <f>W12/$P12*100</f>
+        <f t="shared" si="8"/>
         <v>0.63036732896087067</v>
       </c>
       <c r="L12" s="112">
-        <f>X12/$V12*100</f>
+        <f t="shared" si="9"/>
         <v>62.184123896909696</v>
       </c>
       <c r="M12" s="114">
-        <f>Y12/$V12*100</f>
+        <f t="shared" si="10"/>
         <v>36.344050631825567</v>
       </c>
       <c r="N12" s="104">
         <v>12840566</v>
       </c>
       <c r="O12" s="105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6230858</v>
       </c>
       <c r="P12" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>5748553</v>
       </c>
       <c r="Q12" s="105">
@@ -16278,65 +16278,65 @@
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>2009</v>
       </c>
       <c r="B13" s="94">
         <v>4</v>
       </c>
       <c r="C13" s="110">
-        <f>(O13/$N13*100)</f>
+        <f t="shared" si="0"/>
         <v>49.017344916909899</v>
       </c>
       <c r="D13" s="110">
-        <f>(P13/$N13*100)</f>
+        <f t="shared" si="1"/>
         <v>44.556221341844363</v>
       </c>
       <c r="E13" s="110">
-        <f>(Q13/$N13*100)</f>
+        <f t="shared" si="2"/>
         <v>38.882121396303774</v>
       </c>
       <c r="F13" s="110">
-        <f>R13/$O13*100</f>
+        <f t="shared" si="3"/>
         <v>11.575698265907407</v>
       </c>
       <c r="G13" s="111">
-        <f>S13/$O13*100</f>
+        <f t="shared" si="4"/>
         <v>9.1011122341033648</v>
       </c>
       <c r="H13" s="112">
-        <f>T13/$P13*100</f>
+        <f t="shared" si="5"/>
         <v>4.4380333559216947</v>
       </c>
       <c r="I13" s="113">
-        <f>U13/$P13*100</f>
+        <f t="shared" si="6"/>
         <v>19.636840053817618</v>
       </c>
       <c r="J13" s="113">
-        <f>V13/$P13*100</f>
+        <f t="shared" si="7"/>
         <v>75.336087648606991</v>
       </c>
       <c r="K13" s="113">
-        <f>W13/$P13*100</f>
+        <f t="shared" si="8"/>
         <v>0.58903894165369297</v>
       </c>
       <c r="L13" s="112">
-        <f>X13/$V13*100</f>
+        <f t="shared" si="9"/>
         <v>63.220682198968269</v>
       </c>
       <c r="M13" s="114">
-        <f>Y13/$V13*100</f>
+        <f t="shared" si="10"/>
         <v>35.908542275980658</v>
       </c>
       <c r="N13" s="104">
         <v>12972965</v>
       </c>
       <c r="O13" s="105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6359003</v>
       </c>
       <c r="P13" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>5780263</v>
       </c>
       <c r="Q13" s="105">
@@ -16369,65 +16369,65 @@
     </row>
     <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>2010</v>
       </c>
       <c r="B14" s="94">
         <v>4</v>
       </c>
       <c r="C14" s="110">
-        <f>(O14/$N14*100)</f>
+        <f t="shared" si="0"/>
         <v>48.324860157818335</v>
       </c>
       <c r="D14" s="110">
-        <f>(P14/$N14*100)</f>
+        <f t="shared" si="1"/>
         <v>44.443674827612199</v>
       </c>
       <c r="E14" s="110">
-        <f>(Q14/$N14*100)</f>
+        <f t="shared" si="2"/>
         <v>40.085100253805365</v>
       </c>
       <c r="F14" s="110">
-        <f>R14/$O14*100</f>
+        <f t="shared" si="3"/>
         <v>9.0193216484697452</v>
       </c>
       <c r="G14" s="111">
-        <f>S14/$O14*100</f>
+        <f t="shared" si="4"/>
         <v>8.0314465836653124</v>
       </c>
       <c r="H14" s="112">
-        <f>T14/$P14*100</f>
+        <f t="shared" si="5"/>
         <v>3.8483967221247632</v>
       </c>
       <c r="I14" s="113">
-        <f>U14/$P14*100</f>
+        <f t="shared" si="6"/>
         <v>17.391839853521539</v>
       </c>
       <c r="J14" s="113">
-        <f>V14/$P14*100</f>
+        <f t="shared" si="7"/>
         <v>78.180365707609383</v>
       </c>
       <c r="K14" s="113">
-        <f>W14/$P14*100</f>
+        <f t="shared" si="8"/>
         <v>0.57939771674432217</v>
       </c>
       <c r="L14" s="112">
-        <f>X14/$V14*100</f>
+        <f t="shared" si="9"/>
         <v>66.856911637412253</v>
       </c>
       <c r="M14" s="114">
-        <f>Y14/$V14*100</f>
+        <f t="shared" si="10"/>
         <v>32.715394726593352</v>
       </c>
       <c r="N14" s="104">
         <v>13080102</v>
       </c>
       <c r="O14" s="105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6320941</v>
       </c>
       <c r="P14" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>5813278</v>
       </c>
       <c r="Q14" s="105">
@@ -16460,65 +16460,65 @@
     </row>
     <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>2011</v>
       </c>
       <c r="B15" s="94">
         <v>4</v>
       </c>
       <c r="C15" s="110">
-        <f>(O15/$N15*100)</f>
+        <f t="shared" si="0"/>
         <v>48.495209816271291</v>
       </c>
       <c r="D15" s="110">
-        <f>(P15/$N15*100)</f>
+        <f t="shared" si="1"/>
         <v>44.769067754799671</v>
       </c>
       <c r="E15" s="110">
-        <f>(Q15/$N15*100)</f>
+        <f t="shared" si="2"/>
         <v>39.940227068826538</v>
       </c>
       <c r="F15" s="110">
-        <f>R15/$O15*100</f>
+        <f t="shared" si="3"/>
         <v>9.9573560033406512</v>
       </c>
       <c r="G15" s="111">
-        <f>S15/$O15*100</f>
+        <f t="shared" si="4"/>
         <v>7.6835260133701127</v>
       </c>
       <c r="H15" s="112">
-        <f>T15/$P15*100</f>
+        <f t="shared" si="5"/>
         <v>3.7497147464795564</v>
       </c>
       <c r="I15" s="113">
-        <f>U15/$P15*100</f>
+        <f t="shared" si="6"/>
         <v>16.781265396484592</v>
       </c>
       <c r="J15" s="113">
-        <f>V15/$P15*100</f>
+        <f t="shared" si="7"/>
         <v>78.956733356368375</v>
       </c>
       <c r="K15" s="113">
-        <f>W15/$P15*100</f>
+        <f t="shared" si="8"/>
         <v>0.4406721844502669</v>
       </c>
       <c r="L15" s="112">
-        <f>X15/$V15*100</f>
+        <f t="shared" si="9"/>
         <v>65.633256926289576</v>
       </c>
       <c r="M15" s="114">
-        <f>Y15/$V15*100</f>
+        <f t="shared" si="10"/>
         <v>33.31284121471095</v>
       </c>
       <c r="N15" s="104">
         <v>13174860</v>
       </c>
       <c r="O15" s="105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6389176</v>
       </c>
       <c r="P15" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>5898262</v>
       </c>
       <c r="Q15" s="105">
@@ -16551,65 +16551,65 @@
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>2012</v>
       </c>
       <c r="B16" s="94">
         <v>4</v>
       </c>
       <c r="C16" s="110">
-        <f>(O16/$N16*100)</f>
+        <f t="shared" si="0"/>
         <v>48.875445952034333</v>
       </c>
       <c r="D16" s="110">
-        <f>(P16/$N16*100)</f>
+        <f t="shared" si="1"/>
         <v>45.091612336569689</v>
       </c>
       <c r="E16" s="110">
-        <f>(Q16/$N16*100)</f>
+        <f t="shared" si="2"/>
         <v>39.981521573378402</v>
       </c>
       <c r="F16" s="110">
-        <f>R16/$O16*100</f>
+        <f t="shared" si="3"/>
         <v>10.455333273493302</v>
       </c>
       <c r="G16" s="111">
-        <f>S16/$O16*100</f>
+        <f t="shared" si="4"/>
         <v>7.741788421077632</v>
       </c>
       <c r="H16" s="112">
-        <f>T16/$P16*100</f>
+        <f t="shared" si="5"/>
         <v>4.0457841717959599</v>
       </c>
       <c r="I16" s="113">
-        <f>U16/$P16*100</f>
+        <f t="shared" si="6"/>
         <v>17.262411442365234</v>
       </c>
       <c r="J16" s="113">
-        <f>V16/$P16*100</f>
+        <f t="shared" si="7"/>
         <v>78.538995449667169</v>
       </c>
       <c r="K16" s="113">
-        <f>W16/$P16*100</f>
+        <f t="shared" si="8"/>
         <v>0.15280893617163549</v>
       </c>
       <c r="L16" s="112">
-        <f>X16/$V16*100</f>
+        <f t="shared" si="9"/>
         <v>64.78545873120845</v>
       </c>
       <c r="M16" s="114">
-        <f>Y16/$V16*100</f>
+        <f t="shared" si="10"/>
         <v>34.209600426717799</v>
       </c>
       <c r="N16" s="104">
         <v>13266281</v>
       </c>
       <c r="O16" s="105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6483954</v>
       </c>
       <c r="P16" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>5981980</v>
       </c>
       <c r="Q16" s="105">
@@ -16642,65 +16642,65 @@
     </row>
     <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>2013</v>
       </c>
       <c r="B17" s="94">
         <v>4</v>
       </c>
       <c r="C17" s="110">
-        <f>(O17/$N17*100)</f>
+        <f t="shared" si="0"/>
         <v>47.344371914355143</v>
       </c>
       <c r="D17" s="110">
-        <f>(P17/$N17*100)</f>
+        <f t="shared" si="1"/>
         <v>44.262711165241583</v>
       </c>
       <c r="E17" s="110">
-        <f>(Q17/$N17*100)</f>
+        <f t="shared" si="2"/>
         <v>40.416360995668377</v>
       </c>
       <c r="F17" s="110">
-        <f>R17/$O17*100</f>
+        <f t="shared" si="3"/>
         <v>8.1241972679058225</v>
       </c>
       <c r="G17" s="111">
-        <f>S17/$O17*100</f>
+        <f t="shared" si="4"/>
         <v>6.5090329103704363</v>
       </c>
       <c r="H17" s="112">
-        <f>T17/$P17*100</f>
+        <f t="shared" si="5"/>
         <v>3.0989768803693076</v>
       </c>
       <c r="I17" s="113">
-        <f>U17/$P17*100</f>
+        <f t="shared" si="6"/>
         <v>18.958579905460454</v>
       </c>
       <c r="J17" s="113">
-        <f>V17/$P17*100</f>
+        <f t="shared" si="7"/>
         <v>77.612589002725301</v>
       </c>
       <c r="K17" s="113">
-        <f>W17/$P17*100</f>
+        <f t="shared" si="8"/>
         <v>0.3298542114449472</v>
       </c>
       <c r="L17" s="112">
-        <f>X17/$V17*100</f>
+        <f t="shared" si="9"/>
         <v>66.618952418859678</v>
       </c>
       <c r="M17" s="114">
-        <f>Y17/$V17*100</f>
+        <f t="shared" si="10"/>
         <v>32.570092539580756</v>
       </c>
       <c r="N17" s="104">
         <v>13478544</v>
       </c>
       <c r="O17" s="105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6381332</v>
       </c>
       <c r="P17" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>5965969</v>
       </c>
       <c r="Q17" s="105">

--- a/crudo/datos/01. EPH_GBA_empleo_Total.xlsx
+++ b/crudo/datos/01. EPH_GBA_empleo_Total.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facun\OneDrive\Documentos\GitHub\ceped-data\crudo\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60CB019-AE54-4E08-AE19-D95C65BB8411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9E1652-1D6C-4369-887D-F165E022EF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2790" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4974,7 +4974,7 @@
       <selection activeCell="C6" sqref="C6"/>
       <selection pane="topRight" activeCell="C6" sqref="C6"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="K38" sqref="K38"/>
+      <selection pane="bottomRight" activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6130,7 +6130,7 @@
         <v>22.514727567641906</v>
       </c>
       <c r="J20" s="113">
-        <f t="shared" ref="J20:J36" si="9">V20/$P20*100</f>
+        <f t="shared" ref="J20:J35" si="9">V20/$P20*100</f>
         <v>71.104720111164212</v>
       </c>
       <c r="K20" s="113">
@@ -7594,20 +7594,20 @@
         <v>21.750866157233773</v>
       </c>
       <c r="H36" s="112">
-        <f t="shared" si="7"/>
-        <v>4.0564828090707294</v>
+        <f>T36/(T36+U36+V36+W36)*100</f>
+        <v>3.8000089536464934</v>
       </c>
       <c r="I36" s="113">
-        <f t="shared" si="8"/>
-        <v>25.11128476673467</v>
+        <f>U36/(T36+U36+V36+W36)*100</f>
+        <v>23.523606888652967</v>
       </c>
       <c r="J36" s="113">
-        <f>V36/$P36*100-6.7</f>
-        <v>69.809940030443258</v>
+        <f>V36/(T36+U36+V36+W36)*100</f>
+        <v>71.672547584453795</v>
       </c>
       <c r="K36" s="113">
-        <f t="shared" si="10"/>
-        <v>1.0715884757545846</v>
+        <f>W36/(T36+U36+V36+W36)*100</f>
+        <v>1.0038365732467276</v>
       </c>
       <c r="L36" s="112">
         <f t="shared" si="14"/>
